--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -37,6 +37,35 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Z-register High Byte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">DDC6 DDC5 DDC4 DDC3 DDC2 DDC1 DDC0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">–	–	–	–	–	OCF2B OCF2A TOV2
+7	6	5	4	3	      2           1        0</t>
         </r>
       </text>
     </comment>
@@ -90,6 +119,35 @@
         </r>
       </text>
     </comment>
+    <comment ref="S8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PINC6 PINC5 PINC4 PINC3 PINC2 PINC1 PINC0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">–	–	ICF1	 –	–	OCF1B OCF1A TOV1
+7	6	   5	 4	3	     2           1          0</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T7" authorId="0">
       <text>
         <r>
@@ -101,6 +159,49 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Y-Register High Byte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PORTB7 PORTB6 PORTB5 PORTB4 PORTB3 PORTB2 PORTB1 PORTB0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">–	–	–	–	–	OCF0B OCF0A TOV0
+7	6	5	4	3	     2           1         0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OCF0B	Becomes 1 when interrupt occurs
+OCF0A	Becomes 1 when interrupt occurs
+TOV0  	Becomes 1 when interrupt occurs
+OCR0A continuesly compares with TCNTx. When matched, the above become 1, even if the interrupt is not enabled
+</t>
         </r>
       </text>
     </comment>
@@ -118,6 +219,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="U8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">DDB7 DDB6 DDB5 DDB4 DDB3 DDB2 DDB1 DDB0</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V7" authorId="0">
       <text>
         <r>
@@ -129,6 +244,34 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-Register High Byte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PINB7 PINB6 PINB5 PINB4 PINB3 PINB2 PINB1 PINB0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PORTD6 PORTD5 PORTD4 PORTD3 PORTD2 PORTD1 PORTD0</t>
         </r>
       </text>
     </comment>
@@ -144,6 +287,48 @@
           </rPr>
           <t xml:space="preserve">X-Register Low Byte
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">DDD7 DDD6 DDD5 DDD4 DDD3 DDD2 DDD1 DDD0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PIND7 PIND6 PIND5 PIND4 PIND3 PIND2 PIND1 PIND0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">PORTC6 PORTC5 PORTC4 PORTC3 PORTC2 PORTC1 PORTC0</t>
         </r>
       </text>
     </comment>
@@ -168,7 +353,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -182,57 +367,57 @@
     <t xml:space="preserve">32 x 8 General Purpose Registrers</t>
   </si>
   <si>
+    <t xml:space="preserve">x7H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x6H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x5H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x4H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x3H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x2H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x1H</t>
+  </si>
+  <si>
     <t xml:space="preserve">x0H</t>
   </si>
   <si>
-    <t xml:space="preserve">x1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x2H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x3H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x4H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x5H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x6H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x7H</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application Program section</t>
   </si>
   <si>
+    <t xml:space="preserve">xFH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xBH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x9H</t>
+  </si>
+  <si>
     <t xml:space="preserve">x8H</t>
   </si>
   <si>
-    <t xml:space="preserve">x9H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xAH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xBH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xDH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xFH</t>
-  </si>
-  <si>
     <t xml:space="preserve">07H</t>
   </si>
   <si>
@@ -359,18 +544,57 @@
     <t xml:space="preserve">27H</t>
   </si>
   <si>
+    <t xml:space="preserve">DDRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PINB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
     <t xml:space="preserve">20H</t>
   </si>
   <si>
     <t xml:space="preserve">2FH</t>
   </si>
   <si>
+    <t xml:space="preserve">PORTD7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DDRD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PORTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">28H</t>
   </si>
   <si>
     <t xml:space="preserve">37H</t>
   </si>
   <si>
+    <t xml:space="preserve">TIFR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIFR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIFR0</t>
+  </si>
+  <si>
     <t xml:space="preserve">30H</t>
   </si>
   <si>
@@ -419,52 +643,94 @@
     <t xml:space="preserve">68H</t>
   </si>
   <si>
+    <t xml:space="preserve">77H</t>
+  </si>
+  <si>
     <t xml:space="preserve">70H</t>
   </si>
   <si>
+    <t xml:space="preserve">7FH</t>
+  </si>
+  <si>
     <t xml:space="preserve">78H</t>
   </si>
   <si>
+    <t xml:space="preserve">87H</t>
+  </si>
+  <si>
     <t xml:space="preserve">80H</t>
   </si>
   <si>
+    <t xml:space="preserve">8FH</t>
+  </si>
+  <si>
     <t xml:space="preserve">88H</t>
   </si>
   <si>
     <t xml:space="preserve">Boot Program section</t>
   </si>
   <si>
+    <t xml:space="preserve">97H</t>
+  </si>
+  <si>
     <t xml:space="preserve">90H</t>
   </si>
   <si>
+    <t xml:space="preserve">9FH</t>
+  </si>
+  <si>
     <t xml:space="preserve">98H</t>
   </si>
   <si>
     <t xml:space="preserve">3FFF</t>
   </si>
   <si>
+    <t xml:space="preserve">A7H</t>
+  </si>
+  <si>
     <t xml:space="preserve">A0H</t>
   </si>
   <si>
+    <t xml:space="preserve">AFH</t>
+  </si>
+  <si>
     <t xml:space="preserve">A8H</t>
   </si>
   <si>
+    <t xml:space="preserve">B7H</t>
+  </si>
+  <si>
     <t xml:space="preserve">B0H</t>
   </si>
   <si>
+    <t xml:space="preserve">BFH</t>
+  </si>
+  <si>
     <t xml:space="preserve">B8H</t>
   </si>
   <si>
+    <t xml:space="preserve">C7H</t>
+  </si>
+  <si>
     <t xml:space="preserve">C0H</t>
   </si>
   <si>
+    <t xml:space="preserve">CFH</t>
+  </si>
+  <si>
     <t xml:space="preserve">C8H</t>
   </si>
   <si>
     <t xml:space="preserve">Program Counter is 14 bits wide</t>
   </si>
   <si>
+    <t xml:space="preserve">D7H</t>
+  </si>
+  <si>
     <t xml:space="preserve">D0H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFH</t>
   </si>
   <si>
     <t xml:space="preserve">D8H</t>
@@ -519,7 +785,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -543,6 +809,38 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF55308D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,6 +852,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -739,7 +1043,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -812,15 +1116,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,11 +1140,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -840,15 +1176,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -860,7 +1192,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -933,7 +1265,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0563C1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -960,12 +1292,12 @@
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF404040"/>
     </indexedColors>
   </colors>
@@ -983,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>419760</xdr:colOff>
+      <xdr:colOff>419400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -995,7 +1327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17137800" y="510840"/>
-          <a:ext cx="342360" cy="708840"/>
+          <a:ext cx="342000" cy="708480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1061,7 +1393,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
@@ -1073,7 +1405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17521920" y="195840"/>
-          <a:ext cx="1865160" cy="1179000"/>
+          <a:ext cx="1864800" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1154,9 +1486,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1166,7 +1498,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17144640" y="1220400"/>
-          <a:ext cx="342360" cy="1382040"/>
+          <a:ext cx="342000" cy="1381680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1232,7 +1564,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
@@ -1244,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17528400" y="1893960"/>
-          <a:ext cx="1397520" cy="336600"/>
+          <a:ext cx="1397160" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1309,9 +1641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>437760</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1321,7 +1653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17156160" y="2609280"/>
-          <a:ext cx="342360" cy="3485880"/>
+          <a:ext cx="342000" cy="3485520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1387,7 +1719,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>388440</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -1399,7 +1731,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17540640" y="4196520"/>
-          <a:ext cx="1456200" cy="336600"/>
+          <a:ext cx="1455840" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>450000</xdr:colOff>
+      <xdr:colOff>449640</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1476,7 +1808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17168040" y="6102000"/>
-          <a:ext cx="342360" cy="2174760"/>
+          <a:ext cx="342000" cy="2174400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1542,9 +1874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>223560</xdr:colOff>
+      <xdr:colOff>223200</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1554,7 +1886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17588160" y="7322760"/>
-          <a:ext cx="2473920" cy="336960"/>
+          <a:ext cx="2473560" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,9 +1935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1619,7 +1951,44 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5393160" cy="1121760"/>
+          <a:ext cx="5392800" cy="1121400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>87120</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>43920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>376560</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19310400" y="1796400"/>
+          <a:ext cx="4578840" cy="3031200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,8 +2010,8 @@
   </sheetPr>
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2067,16 +2436,32 @@
       <c r="Q8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="21" t="s">
+      <c r="R8" s="18" t="s">
         <v>63</v>
+      </c>
+      <c r="S8" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z8" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="8"/>
@@ -2106,18 +2491,34 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="21" t="s">
-        <v>65</v>
+        <v>70</v>
+      </c>
+      <c r="R9" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V9" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="8"/>
@@ -2147,18 +2548,34 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
       <c r="Q10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="25" t="s">
-        <v>67</v>
+        <v>76</v>
+      </c>
+      <c r="R10" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z10" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="AA10" s="14"/>
       <c r="AB10" s="8"/>
@@ -2166,9 +2583,9 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
       <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="26"/>
+      <c r="AG10" s="0"/>
+      <c r="AH10" s="0"/>
+      <c r="AI10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
@@ -2188,20 +2605,20 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
       <c r="Q11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="25" t="s">
-        <v>70</v>
+        <v>81</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="S11" s="29"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
+      <c r="W11" s="29"/>
+      <c r="X11" s="29"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="8"/>
@@ -2209,9 +2626,9 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
       <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="26"/>
+      <c r="AG11" s="0"/>
+      <c r="AH11" s="0"/>
+      <c r="AI11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -2231,18 +2648,18 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="25" t="s">
-        <v>72</v>
+        <v>84</v>
+      </c>
+      <c r="R12" s="31"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
+      <c r="W12" s="29"/>
+      <c r="X12" s="29"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="8"/>
@@ -2252,7 +2669,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="26"/>
+      <c r="AI12" s="33"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -2272,18 +2689,18 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="24"/>
-      <c r="Z13" s="25" t="s">
-        <v>74</v>
+        <v>86</v>
+      </c>
+      <c r="R13" s="31"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="29"/>
+      <c r="V13" s="29"/>
+      <c r="W13" s="29"/>
+      <c r="X13" s="29"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
@@ -2293,7 +2710,7 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="26"/>
+      <c r="AI13" s="33"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -2313,18 +2730,18 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="24"/>
-      <c r="Z14" s="25" t="s">
-        <v>76</v>
+        <v>88</v>
+      </c>
+      <c r="R14" s="31"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="8"/>
@@ -2332,9 +2749,9 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
       <c r="AF14" s="8"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="26"/>
+      <c r="AG14" s="0"/>
+      <c r="AH14" s="0"/>
+      <c r="AI14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
@@ -2354,18 +2771,18 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="25" t="s">
-        <v>78</v>
+        <v>90</v>
+      </c>
+      <c r="R15" s="31"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="8"/>
@@ -2373,9 +2790,9 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
       <c r="AF15" s="8"/>
-      <c r="AG15" s="8"/>
-      <c r="AH15" s="8"/>
-      <c r="AI15" s="26"/>
+      <c r="AG15" s="0"/>
+      <c r="AH15" s="0"/>
+      <c r="AI15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -2395,18 +2812,18 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="29"/>
-      <c r="Z16" s="25" t="s">
-        <v>80</v>
+        <v>92</v>
+      </c>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="30" t="s">
+        <v>93</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AB16" s="8"/>
@@ -2416,7 +2833,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="26"/>
+      <c r="AI16" s="33"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -2436,18 +2853,18 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-      <c r="X17" s="28"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="25" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="R17" s="34"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="30" t="s">
+        <v>95</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AB17" s="8"/>
@@ -2457,7 +2874,7 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="26"/>
+      <c r="AI17" s="33"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -2476,17 +2893,19 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="25" t="s">
-        <v>83</v>
+      <c r="Q18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R18" s="34"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="30" t="s">
+        <v>97</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="8"/>
@@ -2496,7 +2915,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="26"/>
+      <c r="AI18" s="33"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -2515,17 +2934,19 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="27"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="29"/>
-      <c r="Z19" s="25" t="s">
-        <v>84</v>
+      <c r="Q19" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="34"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="30" t="s">
+        <v>99</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
@@ -2535,7 +2956,7 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-      <c r="AI19" s="26"/>
+      <c r="AI19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -2554,17 +2975,19 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="29"/>
-      <c r="Z20" s="25" t="s">
-        <v>85</v>
+      <c r="Q20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="30" t="s">
+        <v>101</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="8"/>
@@ -2574,7 +2997,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-      <c r="AI20" s="26"/>
+      <c r="AI20" s="33"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -2593,17 +3016,19 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="27"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="29"/>
-      <c r="Z21" s="25" t="s">
-        <v>86</v>
+      <c r="Q21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="R21" s="34"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="30" t="s">
+        <v>103</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="8"/>
@@ -2613,11 +3038,11 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="26"/>
+      <c r="AI21" s="33"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2634,17 +3059,19 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="25" t="s">
-        <v>88</v>
+      <c r="Q22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R22" s="34"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="AA22" s="14"/>
       <c r="AB22" s="8"/>
@@ -2654,7 +3081,7 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="26"/>
+      <c r="AI22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -2673,17 +3100,19 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="27"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="29"/>
-      <c r="Z23" s="25" t="s">
-        <v>89</v>
+      <c r="Q23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="34"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="8"/>
@@ -2693,7 +3122,7 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="26"/>
+      <c r="AI23" s="33"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -2704,7 +3133,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -2714,17 +3143,19 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="27"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="29"/>
-      <c r="Z24" s="25" t="s">
-        <v>91</v>
+      <c r="Q24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="30" t="s">
+        <v>111</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="8"/>
@@ -2734,7 +3165,7 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="26"/>
+      <c r="AI24" s="33"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
@@ -2753,17 +3184,19 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="29"/>
-      <c r="Z25" s="25" t="s">
-        <v>92</v>
+      <c r="Q25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="R25" s="34"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
@@ -2773,7 +3206,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="26"/>
+      <c r="AI25" s="33"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -2792,17 +3225,19 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="27"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="29"/>
-      <c r="Z26" s="25" t="s">
-        <v>93</v>
+      <c r="Q26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="R26" s="34"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="8"/>
@@ -2812,7 +3247,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
-      <c r="AI26" s="26"/>
+      <c r="AI26" s="33"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -2831,17 +3266,19 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="29"/>
-      <c r="Z27" s="25" t="s">
-        <v>94</v>
+      <c r="Q27" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="R27" s="34"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="8"/>
@@ -2851,7 +3288,7 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="26"/>
+      <c r="AI27" s="33"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -2870,17 +3307,19 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="27"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="29"/>
-      <c r="Z28" s="25" t="s">
-        <v>95</v>
+      <c r="Q28" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="R28" s="34"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="30" t="s">
+        <v>119</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="8"/>
@@ -2890,7 +3329,7 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="26"/>
+      <c r="AI28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
@@ -2909,17 +3348,19 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="25" t="s">
-        <v>96</v>
+      <c r="Q29" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="34"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="8"/>
@@ -2929,11 +3370,11 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="26"/>
+      <c r="AI29" s="33"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2950,17 +3391,19 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="29"/>
-      <c r="Z30" s="25" t="s">
-        <v>98</v>
+      <c r="Q30" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="R30" s="34"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="30" t="s">
+        <v>124</v>
       </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="8"/>
@@ -2970,7 +3413,7 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="26"/>
+      <c r="AI30" s="33"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
@@ -2989,17 +3432,19 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="29"/>
-      <c r="Z31" s="25" t="s">
-        <v>99</v>
+      <c r="Q31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="R31" s="34"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="30" t="s">
+        <v>126</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
@@ -3009,7 +3454,7 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="26"/>
+      <c r="AI31" s="33"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -3029,18 +3474,18 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R32" s="27"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="29"/>
-      <c r="Z32" s="25" t="s">
-        <v>101</v>
+        <v>127</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="8"/>
@@ -3050,7 +3495,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="26"/>
+      <c r="AI32" s="33"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -3070,18 +3515,18 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="R33" s="27"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="29"/>
-      <c r="Z33" s="25" t="s">
-        <v>103</v>
+        <v>129</v>
+      </c>
+      <c r="R33" s="34"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="8"/>
@@ -3091,7 +3536,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="26"/>
+      <c r="AI33" s="33"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
@@ -3111,18 +3556,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="R34" s="27"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="25" t="s">
-        <v>105</v>
+        <v>131</v>
+      </c>
+      <c r="R34" s="34"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="8"/>
@@ -3132,7 +3577,7 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="26"/>
+      <c r="AI34" s="33"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
@@ -3152,22 +3597,22 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="R35" s="30"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y35" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z35" s="25" t="s">
-        <v>109</v>
+        <v>133</v>
+      </c>
+      <c r="R35" s="37"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y35" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z35" s="30" t="s">
+        <v>136</v>
       </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="8"/>
@@ -3177,126 +3622,126 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="26"/>
+      <c r="AI35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="33"/>
-      <c r="Z36" s="34"/>
+      <c r="Q36" s="40"/>
+      <c r="Z36" s="41"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="33"/>
-      <c r="Z37" s="34"/>
+      <c r="Q37" s="40"/>
+      <c r="Z37" s="41"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="33"/>
-      <c r="Z38" s="34"/>
+      <c r="Q38" s="40"/>
+      <c r="Z38" s="41"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="33"/>
-      <c r="Z39" s="34"/>
+      <c r="Q39" s="40"/>
+      <c r="Z39" s="41"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="33"/>
-      <c r="Z40" s="34"/>
+      <c r="Q40" s="40"/>
+      <c r="Z40" s="41"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="33"/>
-      <c r="Z41" s="34"/>
+      <c r="Q41" s="40"/>
+      <c r="Z41" s="41"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="33"/>
-      <c r="Z42" s="34"/>
+      <c r="Q42" s="40"/>
+      <c r="Z42" s="41"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="33"/>
-      <c r="Z43" s="34"/>
+      <c r="Q43" s="40"/>
+      <c r="Z43" s="41"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="T44" s="36"/>
-      <c r="U44" s="36"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="36"/>
-      <c r="Y44" s="36"/>
-      <c r="Z44" s="36"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="37"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="44"/>
       <c r="S45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z45" s="34"/>
+        <v>138</v>
+      </c>
+      <c r="Z45" s="41"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="38"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="45"/>
       <c r="S46" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z46" s="34"/>
+        <v>139</v>
+      </c>
+      <c r="Z46" s="41"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="39"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="46"/>
       <c r="S47" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Z47" s="34"/>
+        <v>140</v>
+      </c>
+      <c r="Z47" s="41"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="33"/>
-      <c r="Z48" s="34"/>
+      <c r="Q48" s="40"/>
+      <c r="Z48" s="41"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="33"/>
-      <c r="Z49" s="34"/>
+      <c r="Q49" s="40"/>
+      <c r="Z49" s="41"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="33"/>
-      <c r="Z50" s="34"/>
+      <c r="Q50" s="40"/>
+      <c r="Z50" s="41"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="33"/>
-      <c r="Z51" s="34"/>
+      <c r="Q51" s="40"/>
+      <c r="Z51" s="41"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="33"/>
-      <c r="Z52" s="34"/>
+      <c r="Q52" s="40"/>
+      <c r="Z52" s="41"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="33"/>
-      <c r="Z53" s="34"/>
+      <c r="Q53" s="40"/>
+      <c r="Z53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3325,11 +3770,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.47"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -113,6 +113,76 @@
         </r>
       </text>
     </comment>
+    <comment ref="R17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Interrupt Mask Register
+–	–	ICIE1	–	–	OCIE1B OCIE1A TOIE1
+7	6	    5          4      3            2           1           0
+[5] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ICIE1: If set, Enables TimerCounter1 Input Capture interrupt.
+		Executes, if the [5]ICF1 located in TIFR1, sets
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OCIE1B: If set, enables TimerCounter1 Output Compare B Match interrupt
+		Executes when [2]OCF1B in TIFR1 in is set
+[1] OCIE1A: If set, enables TimerCounter1 Output Compare A Match interrupt
+		Executes when [1]OCF1A in TIFR1 in is set
+[0] TOIE1: If set, enables Timer/Counter1 Overflow interrupt
+		Executes when [0]TOV1 in TIFR1 in is set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Digital Input Disable Register 1
+	–	–	–	–	–	–	AIN1D AIN0D
+Bit 1, 0 – AIN1D, AIN0D: AIN1, AIN0 Digital Input Disable
+When this bit is written logic one, the digital input buffer on the AIN1/0 pin is disabled.
+When an analog signal is applied to the AIN1/0 pin and the digital input from this pin is not needed, this bit should be written logic one to reduce power consumption in the digital input buffer</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R45" authorId="0">
       <text>
         <r>
@@ -206,6 +276,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Interrupt Mask Register
 </t>
@@ -216,15 +287,81 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[7] –
-[6] –
-[5] –
-[4] –
-[3] –
-[2] OCIE0B
-[1] OCIE0A
-[0] TOIE0</t>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[7] – [6] – [5] – [4] – [3] –
+[2] OCIE0B: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> If set, enables </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Compare Match B interrupt
+	Executes when [2]OCF0B in TIFRO in is set
+[1] OCIE0A: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set, enables Timer/Counter0 Compare Match A interrupt
+	Executes when [1]OCF0A in TIFRO in is set
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[0] TOIE0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If set, enables Timer/Counter0 Overflow interrupt
+	Executes when [0]TOV0 in TIFRO in is set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Digital Input Disable Register 0
+	–	–	ADC5D ADC4D ADC3D ADC2D ADC1D ADC0D
+Bit 5:0 – ADC5D..ADC0D: ADC5..0 Digital Input Disable
+When this bit is written logic one, the digital input buffer on the corresponding ADC pin is disabled.
+When the digital input from this pin is not needed, this
+bit should be written logic one to reduce power consumption in the digital input buffer.</t>
         </r>
       </text>
     </comment>
@@ -294,7 +431,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Counter Control Register B </t>
+          <t xml:space="preserve">Timer/Counter0 Control Register B </t>
         </r>
         <r>
           <rPr>
@@ -441,7 +578,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Counter Control Register A </t>
+          <t xml:space="preserve">Timer/Counter0 Control Register A </t>
         </r>
         <r>
           <rPr>
@@ -523,6 +660,444 @@
         </r>
       </text>
     </comment>
+    <comment ref="U19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ADC Multiplexer Selection Register
+Reference Selection Bits: These bits select the voltage reference for the ADC
+[7] REFS1 
+[6] REFS0 
+ REFS1 REFS0
+    0 		0 	AREF, Internal V ref turned off
+    0 		1 	AV CC with external capacitor at AREF pin
+    1 		0 	Reserved
+    1 		1 	Internal 1.1V Voltage Reference with external capacitor at AREF pin
+------------------------------------------
+[5] ADLAR: 	</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ADLAR =0 [Right-adjusted values, 8-bit precision]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">			</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ADLAR =1 [Left-adjusted values, 10-bit precision]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[4] – 
+Select which ADC pin will be used:
+[3] MUX3 [2] MUX2 [1] MUX1 [0] MUX0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> MUX3  MUX2  MUX1 MUX0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">     0           0           0          0 		ADC0
+     0           0           0          1 		ADC1
+     0           0           1          0		ADC2
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 		ADC3
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 		ADC4
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1		ADC5
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 		ADC6
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 		ADC7
+     1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 		ADC8
+Note: If you’re using an external reference on the AREF pin, you must set the analog reference to EXTERNAL before calling analogRead()</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V7" authorId="0">
       <text>
         <r>
@@ -584,6 +1159,364 @@
         </r>
       </text>
     </comment>
+    <comment ref="V19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ADC Control and Status Register B
+[7] –	
+[6] ACME </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 247]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[5] –	
+[4] –	
+[3] –	
+ADC Auto Trigger Source
+[2] ADTS2 
+[1] ADTS1 
+[0] ADTS0
+If ADATE in ADCSRA is written to one, the value of these bits selects which source will trigger an ADC conversion. If ADATE is cleared, the ADTS2:0 settings will have no effect. A conversion will be triggered by the rising edge of the selected Interrupt Flag
+ADTS2 ADTS1 ADTS0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Trigger Source
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">     0          0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0		Free Running mode
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1	 	Analog Comparator
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0		External Interrupt Request 0
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1 		Timer/Counter0 Compare Match A
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 		Timer/Counter0 Overflow
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 		Timer/Counter1 Compare Match B
+     1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 		Timer/Counter1 Overflow
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">         </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1 		Timer/Counter1 Capture Event</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="W7" authorId="0">
       <text>
         <r>
@@ -617,6 +1550,489 @@
         </r>
       </text>
     </comment>
+    <comment ref="W19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ADC Control and Status Register A
+[7] ADEN: Writing this bit to one enables the ADC
+[6] ADSC : Write this bit to one to start each conversion
+ISR(ADC_vect)
+{
+	//Resets every time
+	ADCSRA |= (1 &lt;&lt; ADSC);
+}
+--------------------------------------------
+[5] ADATE: ADC Auto Trigger Enable </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 264]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[4] ADIF :ADC Interrupt Flag.
+	</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets when ADC conversion completes
+	Executes ISR(ADC_vect)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ADC Interrupt Enable
+[3] ADIE: If Set, ADC Conversion Complete Interrupt is activated
+ADC Prescaler Select Bits
+[2] ADPS2 
+[1] ADPS1 
+[0] ADPS0
+ADPS2 ADPS1 ADPS0 Division Factor
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0           0                 2
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">           </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">                </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">2
+     0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">                </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">4
+     0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">                </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 8
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">               </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">16
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">      32
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> 0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">               </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">64
+     1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">          </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">1               128
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="X9" authorId="0">
       <text>
         <r>
@@ -629,6 +2045,36 @@
           </rPr>
           <t xml:space="preserve">PIND7 PIND6 PIND5 PIND4 PIND3 PIND2 PIND1 PIND0
 PIND gets updated with PORTD values every clock cyrcle. It is digitalRead() but for every pin on PORTD</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ADC Data Register High byte
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[5]ADLAR is in ADMUX
+With ADLAR =0 [Right-adjusted values, 8-bit precision]:
+    -		-	 -	    -	       -	 -      ADC9 ADC8	|ADCH
+ADC7 ADC6 ADC5 ADC4 ADC3 ADC2 ADC1 ADC0	|ADCL
+With ADLAR =1 [Left-adjusted values, 10-bit precision]:
+ADC9 ADC8 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2	|ADCH
+ADC1 ADC0     -	   -	       -         -         -          -		|ADCL</t>
         </r>
       </text>
     </comment>
@@ -673,6 +2119,200 @@
           <t xml:space="preserve">Its value gets continuously compared with TCNT0.
 If they match, OCF0B bit in TIFR0 is set
 Can be used for waveform output on OC0B pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">–	–	–	–	–	OCIE2B OCIE2A TOIE2
+7	6	5	4	3	      2	    1		0
+[2] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OCIE2B: If set, enables Timer/Counter2 Compare Match B interrupt
+	Executes when [2]OCF2B in TIFR2 in is set
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OCIE2A: If set, enables Timer/Counter2 Compare Match A interrupt
+	Executes when [1]OCF2A in TIFR2 in is set
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[0] </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TOIE2: If set, enables Timer/Counter2 Overflow interrupt
+	Executes when [0]TOV2 in TIFR2 in is set</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y19" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">ADC Data Register Low byte
+[5]ADLAR is in ADMUX
+With ADLAR =0 [Right-adjusted values, 8-bit precision]:
+    -		-	 -	    -	       -	 -      ADC9 ADC8	|ADCH
+ADC7 ADC6 ADC5 ADC4 ADC3 ADC2 ADC1 ADC0	|ADCL
+With ADLAR =1 [Left-adjusted values, 10-bit precision]:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ADC9 ADC8 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2	|ADCH
+ADC1 ADC0     -	   -	       -         -         -          -		|ADCL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 135 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Compare Match Output Mode for Channel A
+[7] COM1A1 
+[6] COM1A0 
+Compare Match Output Mode for Channel B
+[5] COM0B1 
+[4] COM0B0	
+Control the OC1A (Pin 9, PWM) and OC1B (Pin 10, PWM) output behavior.
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM13 and WGM12, found in TCCR1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM11 
+[0] WGM10</t>
         </r>
       </text>
     </comment>
@@ -697,7 +2337,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="187">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -1110,12 +2750,36 @@
     <t xml:space="preserve">7FH</t>
   </si>
   <si>
+    <t xml:space="preserve">DIDR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIDR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCSRB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCSRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADCL</t>
+  </si>
+  <si>
     <t xml:space="preserve">78H</t>
   </si>
   <si>
     <t xml:space="preserve">87H</t>
   </si>
   <si>
+    <t xml:space="preserve">TCCR1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">80H</t>
   </si>
   <si>
@@ -1231,6 +2895,9 @@
   </si>
   <si>
     <t xml:space="preserve">Z-Register</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[x] Indicates bit</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +2907,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1353,6 +3020,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00A933"/>
@@ -1378,6 +3053,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1390,15 +3072,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1409,12 +3092,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1473,6 +3163,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor rgb="FF800080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF158466"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1694,7 +3402,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1767,11 +3475,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1779,6 +3487,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1799,19 +3511,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1823,43 +3539,59 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1871,7 +3603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1888,6 +3620,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1932,7 +3668,7 @@
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
@@ -1961,7 +3697,7 @@
       <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -1991,7 +3727,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
@@ -2003,7 +3739,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17521920" y="195840"/>
-          <a:ext cx="1864080" cy="1179000"/>
+          <a:ext cx="1863720" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,9 +3820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>425520</xdr:colOff>
+      <xdr:colOff>425160</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2096,7 +3832,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17144640" y="1220400"/>
-          <a:ext cx="341280" cy="1380960"/>
+          <a:ext cx="340920" cy="1380600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2162,7 +3898,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
@@ -2174,7 +3910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17528400" y="1893960"/>
-          <a:ext cx="1396440" cy="336600"/>
+          <a:ext cx="1396080" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2239,9 +3975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>437040</xdr:colOff>
+      <xdr:colOff>436680</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2251,7 +3987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17156160" y="2609280"/>
-          <a:ext cx="341280" cy="3484800"/>
+          <a:ext cx="340920" cy="3484440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2317,7 +4053,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>387720</xdr:colOff>
+      <xdr:colOff>387360</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -2329,7 +4065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17540640" y="4196520"/>
-          <a:ext cx="1455120" cy="336600"/>
+          <a:ext cx="1454760" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2394,9 +4130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>10800</xdr:rowOff>
+      <xdr:rowOff>10440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2406,7 +4142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17168040" y="6102000"/>
-          <a:ext cx="341280" cy="2173680"/>
+          <a:ext cx="340920" cy="2173320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2472,7 +4208,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:colOff>222120</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
@@ -2484,7 +4220,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17588160" y="7322760"/>
-          <a:ext cx="2472840" cy="336600"/>
+          <a:ext cx="2472480" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2533,9 +4269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>182160</xdr:colOff>
+      <xdr:colOff>181800</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2549,7 +4285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5392080" cy="1120680"/>
+          <a:ext cx="5391720" cy="1120320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2570,9 +4306,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>375480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2586,7 +4322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19310400" y="1796400"/>
-          <a:ext cx="4578840" cy="3030480"/>
+          <a:ext cx="4578840" cy="3030120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2607,9 +4343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>418680</xdr:colOff>
+      <xdr:colOff>418320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2619,7 +4355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17137800" y="510840"/>
-          <a:ext cx="341280" cy="707760"/>
+          <a:ext cx="340920" cy="707400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2684,13 +4420,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI53"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S20" activeCellId="0" sqref="S20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB18" activeCellId="0" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="8.72"/>
@@ -2706,6 +4442,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="29" style="1" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.48"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3090,6 +4827,7 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
+      <c r="AO7" s="18"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -3111,31 +4849,31 @@
       <c r="Q8" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="R8" s="18" t="s">
+      <c r="R8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="S8" s="19" t="s">
+      <c r="S8" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="20" t="s">
+      <c r="T8" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="U8" s="20" t="s">
+      <c r="U8" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="V8" s="20" t="s">
+      <c r="V8" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="W8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="X8" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="22" t="s">
+      <c r="Y8" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="Z8" s="23" t="s">
+      <c r="Z8" s="24" t="s">
         <v>69</v>
       </c>
       <c r="AA8" s="14"/>
@@ -3168,31 +4906,31 @@
       <c r="Q9" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="25" t="s">
+      <c r="S9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="T9" s="25" t="s">
+      <c r="T9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V9" s="26" t="s">
+      <c r="V9" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="W9" s="26" t="s">
+      <c r="W9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="X9" s="26" t="s">
+      <c r="X9" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="Y9" s="27" t="s">
+      <c r="Y9" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="Z9" s="23" t="s">
+      <c r="Z9" s="24" t="s">
         <v>75</v>
       </c>
       <c r="AA9" s="14"/>
@@ -3225,31 +4963,31 @@
       <c r="Q10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="R10" s="28" t="s">
+      <c r="R10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="25" t="s">
+      <c r="S10" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="25" t="s">
+      <c r="T10" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="25" t="s">
+      <c r="U10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V10" s="25" t="s">
+      <c r="V10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W10" s="25" t="s">
+      <c r="W10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="X10" s="25" t="s">
+      <c r="X10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y10" s="25" t="s">
+      <c r="Y10" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Z10" s="29" t="s">
+      <c r="Z10" s="31" t="s">
         <v>80</v>
       </c>
       <c r="AA10" s="14"/>
@@ -3282,31 +5020,31 @@
       <c r="Q11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="30" t="s">
+      <c r="S11" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="T11" s="21" t="s">
+      <c r="T11" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="U11" s="21" t="s">
+      <c r="U11" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="V11" s="21" t="s">
+      <c r="V11" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="X11" s="25" t="s">
+      <c r="X11" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y11" s="31" t="s">
+      <c r="Y11" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Z11" s="29" t="s">
+      <c r="Z11" s="31" t="s">
         <v>87</v>
       </c>
       <c r="AA11" s="14"/>
@@ -3339,31 +5077,31 @@
       <c r="Q12" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="T12" s="25" t="s">
+      <c r="T12" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="25" t="s">
+      <c r="U12" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="W12" s="25" t="s">
+      <c r="W12" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="X12" s="25" t="s">
+      <c r="X12" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="Y12" s="25" t="s">
+      <c r="Y12" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="Z12" s="29" t="s">
+      <c r="Z12" s="31" t="s">
         <v>97</v>
       </c>
       <c r="AA12" s="14"/>
@@ -3374,7 +5112,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="32"/>
+      <c r="AI12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -3396,31 +5134,31 @@
       <c r="Q13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="25" t="s">
+      <c r="V13" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="W13" s="25" t="s">
+      <c r="W13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="X13" s="25" t="s">
+      <c r="X13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="Z13" s="29" t="s">
+      <c r="Z13" s="31" t="s">
         <v>105</v>
       </c>
       <c r="AA13" s="14"/>
@@ -3431,7 +5169,7 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="32"/>
+      <c r="AI13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -3453,31 +5191,31 @@
       <c r="Q14" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="S14" s="25" t="s">
+      <c r="S14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="T14" s="25" t="s">
+      <c r="T14" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="U14" s="25" t="s">
+      <c r="U14" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="V14" s="25" t="s">
+      <c r="V14" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="W14" s="25" t="s">
+      <c r="W14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="X14" s="25" t="s">
+      <c r="X14" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y14" s="25" t="s">
+      <c r="Y14" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="Z14" s="29" t="s">
+      <c r="Z14" s="31" t="s">
         <v>112</v>
       </c>
       <c r="AA14" s="14"/>
@@ -3510,31 +5248,31 @@
       <c r="Q15" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="S15" s="25" t="s">
+      <c r="S15" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="T15" s="25" t="s">
+      <c r="T15" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="U15" s="25" t="s">
+      <c r="U15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="V15" s="25" t="s">
+      <c r="V15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="W15" s="25" t="s">
+      <c r="W15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="X15" s="25" t="s">
+      <c r="X15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Y15" s="25" t="s">
+      <c r="Y15" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="Z15" s="29" t="s">
+      <c r="Z15" s="31" t="s">
         <v>117</v>
       </c>
       <c r="AA15" s="14"/>
@@ -3567,31 +5305,31 @@
       <c r="Q16" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="R16" s="33" t="s">
+      <c r="R16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="33" t="s">
+      <c r="S16" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="T16" s="33" t="s">
+      <c r="T16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="U16" s="33" t="s">
+      <c r="U16" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="V16" s="33" t="s">
+      <c r="V16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="W16" s="33" t="s">
+      <c r="W16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="X16" s="34" t="s">
+      <c r="X16" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="Y16" s="34" t="s">
+      <c r="Y16" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="Z16" s="29" t="s">
+      <c r="Z16" s="31" t="s">
         <v>123</v>
       </c>
       <c r="AA16" s="14"/>
@@ -3602,7 +5340,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="32"/>
+      <c r="AI16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -3624,31 +5362,31 @@
       <c r="Q17" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="R17" s="33" t="s">
+      <c r="R17" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="S17" s="33" t="s">
+      <c r="S17" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="T17" s="33" t="s">
+      <c r="T17" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="U17" s="33" t="s">
+      <c r="U17" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="V17" s="33" t="s">
+      <c r="V17" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="W17" s="33" t="s">
+      <c r="W17" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="X17" s="34" t="s">
+      <c r="X17" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="Y17" s="34" t="s">
+      <c r="Y17" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="Z17" s="29" t="s">
+      <c r="Z17" s="31" t="s">
         <v>132</v>
       </c>
       <c r="AA17" s="14"/>
@@ -3659,7 +5397,7 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="32"/>
+      <c r="AI17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -3681,31 +5419,31 @@
       <c r="Q18" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="R18" s="33" t="s">
+      <c r="R18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="33" t="s">
+      <c r="T18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="U18" s="33" t="s">
+      <c r="U18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="V18" s="33" t="s">
+      <c r="V18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="W18" s="33" t="s">
+      <c r="W18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="X18" s="33" t="s">
+      <c r="X18" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="Y18" s="33" t="s">
+      <c r="Y18" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="Z18" s="29" t="s">
+      <c r="Z18" s="31" t="s">
         <v>135</v>
       </c>
       <c r="AA18" s="14"/>
@@ -3716,7 +5454,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="32"/>
+      <c r="AI18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -3738,16 +5476,32 @@
       <c r="Q19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="29" t="s">
+      <c r="R19" s="37" t="s">
         <v>137</v>
+      </c>
+      <c r="S19" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="U19" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="V19" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="W19" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="X19" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y19" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z19" s="31" t="s">
+        <v>144</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
@@ -3757,7 +5511,7 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-      <c r="AI19" s="32"/>
+      <c r="AI19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -3777,18 +5531,20 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="29" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="R20" s="41"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z20" s="31" t="s">
+        <v>147</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="8"/>
@@ -3798,7 +5554,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-      <c r="AI20" s="32"/>
+      <c r="AI20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -3818,18 +5574,18 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="29" t="s">
-        <v>141</v>
+        <v>148</v>
+      </c>
+      <c r="R21" s="41"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="31" t="s">
+        <v>149</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="8"/>
@@ -3839,11 +5595,11 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="32"/>
+      <c r="AI21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3861,18 +5617,18 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="R22" s="35"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="29" t="s">
-        <v>144</v>
+        <v>151</v>
+      </c>
+      <c r="R22" s="41"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="42"/>
+      <c r="Z22" s="31" t="s">
+        <v>152</v>
       </c>
       <c r="AA22" s="14"/>
       <c r="AB22" s="8"/>
@@ -3882,7 +5638,7 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="32"/>
+      <c r="AI22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -3902,18 +5658,18 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="29" t="s">
-        <v>146</v>
+        <v>153</v>
+      </c>
+      <c r="R23" s="41"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="42"/>
+      <c r="Z23" s="31" t="s">
+        <v>154</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="8"/>
@@ -3923,7 +5679,7 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="32"/>
+      <c r="AI23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -3934,7 +5690,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -3945,18 +5701,18 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="29" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="R24" s="41"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="42"/>
+      <c r="Z24" s="31" t="s">
+        <v>157</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="8"/>
@@ -3966,7 +5722,7 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="32"/>
+      <c r="AI24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
@@ -3986,18 +5742,18 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="R25" s="35"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="29" t="s">
-        <v>151</v>
+        <v>158</v>
+      </c>
+      <c r="R25" s="41"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="42"/>
+      <c r="Z25" s="31" t="s">
+        <v>159</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
@@ -4007,7 +5763,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="32"/>
+      <c r="AI25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -4027,18 +5783,18 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="R26" s="35"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="29" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="R26" s="41"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="42"/>
+      <c r="Z26" s="31" t="s">
+        <v>161</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="8"/>
@@ -4048,7 +5804,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
-      <c r="AI26" s="32"/>
+      <c r="AI26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -4068,18 +5824,18 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R27" s="35"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="29" t="s">
-        <v>155</v>
+        <v>162</v>
+      </c>
+      <c r="R27" s="41"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="42"/>
+      <c r="Z27" s="31" t="s">
+        <v>163</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="8"/>
@@ -4089,7 +5845,7 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="32"/>
+      <c r="AI27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -4109,18 +5865,18 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="29" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="R28" s="41"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="42"/>
+      <c r="Z28" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="8"/>
@@ -4130,7 +5886,7 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="32"/>
+      <c r="AI28" s="34"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
@@ -4150,18 +5906,18 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R29" s="35"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="29" t="s">
-        <v>159</v>
+        <v>166</v>
+      </c>
+      <c r="R29" s="41"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="42"/>
+      <c r="Z29" s="31" t="s">
+        <v>167</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="8"/>
@@ -4171,11 +5927,11 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="32"/>
+      <c r="AI29" s="34"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -4193,18 +5949,18 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="R30" s="35"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="29" t="s">
-        <v>162</v>
+        <v>169</v>
+      </c>
+      <c r="R30" s="41"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="42"/>
+      <c r="Z30" s="31" t="s">
+        <v>170</v>
       </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="8"/>
@@ -4214,7 +5970,7 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="32"/>
+      <c r="AI30" s="34"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
@@ -4234,18 +5990,18 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="29" t="s">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="R31" s="41"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+      <c r="W31" s="43"/>
+      <c r="X31" s="43"/>
+      <c r="Y31" s="44"/>
+      <c r="Z31" s="31" t="s">
+        <v>172</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
@@ -4255,7 +6011,7 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="32"/>
+      <c r="AI31" s="34"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -4275,18 +6031,18 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="37"/>
-      <c r="U32" s="37"/>
-      <c r="V32" s="37"/>
-      <c r="W32" s="37"/>
-      <c r="X32" s="37"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="29" t="s">
-        <v>166</v>
+        <v>173</v>
+      </c>
+      <c r="R32" s="41"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+      <c r="W32" s="43"/>
+      <c r="X32" s="43"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="31" t="s">
+        <v>174</v>
       </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="8"/>
@@ -4296,7 +6052,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="32"/>
+      <c r="AI32" s="34"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -4316,18 +6072,18 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="R33" s="35"/>
-      <c r="S33" s="37"/>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37"/>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37"/>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="29" t="s">
-        <v>168</v>
+        <v>175</v>
+      </c>
+      <c r="R33" s="41"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
+      <c r="W33" s="43"/>
+      <c r="X33" s="43"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="31" t="s">
+        <v>176</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="8"/>
@@ -4337,7 +6093,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="32"/>
+      <c r="AI33" s="34"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
@@ -4357,18 +6113,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R34" s="35"/>
-      <c r="S34" s="37"/>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37"/>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37"/>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="29" t="s">
-        <v>170</v>
+        <v>177</v>
+      </c>
+      <c r="R34" s="41"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
+      <c r="W34" s="43"/>
+      <c r="X34" s="43"/>
+      <c r="Y34" s="44"/>
+      <c r="Z34" s="31" t="s">
+        <v>178</v>
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="8"/>
@@ -4378,7 +6134,7 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="32"/>
+      <c r="AI34" s="34"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
@@ -4398,22 +6154,22 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R35" s="39"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
-      <c r="W35" s="40"/>
-      <c r="X35" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="R35" s="45"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="Y35" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="Z35" s="29" t="s">
-        <v>173</v>
+      <c r="Y35" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z35" s="31" t="s">
+        <v>181</v>
       </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="8"/>
@@ -4423,134 +6179,139 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="32"/>
+      <c r="AI35" s="34"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="42"/>
-      <c r="Z36" s="43"/>
+      <c r="Q36" s="48"/>
+      <c r="Z36" s="49"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="42"/>
-      <c r="Z37" s="43"/>
+      <c r="Q37" s="48"/>
+      <c r="Z37" s="49"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="42"/>
-      <c r="Z38" s="43"/>
+      <c r="Q38" s="48"/>
+      <c r="Z38" s="49"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="42"/>
-      <c r="Z39" s="43"/>
+      <c r="Q39" s="48"/>
+      <c r="Z39" s="49"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="42"/>
-      <c r="Z40" s="43"/>
+      <c r="Q40" s="48"/>
+      <c r="Z40" s="49"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="42"/>
-      <c r="Z41" s="43"/>
+      <c r="Q41" s="48"/>
+      <c r="Z41" s="49"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="42"/>
-      <c r="Z42" s="43"/>
+      <c r="Q42" s="48"/>
+      <c r="Z42" s="49"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="42"/>
-      <c r="Z43" s="43"/>
+      <c r="Q43" s="48"/>
+      <c r="Z43" s="49"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="42"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="42"/>
-      <c r="R45" s="46"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="52"/>
       <c r="S45" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z45" s="43"/>
+        <v>183</v>
+      </c>
+      <c r="Z45" s="49"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="42"/>
-      <c r="R46" s="47"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="53"/>
       <c r="S46" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z46" s="43"/>
+        <v>184</v>
+      </c>
+      <c r="Z46" s="49"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="42"/>
-      <c r="R47" s="48"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="54"/>
       <c r="S47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="Z47" s="43"/>
+        <v>185</v>
+      </c>
+      <c r="Z47" s="49"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="42"/>
-      <c r="Z48" s="43"/>
+      <c r="Q48" s="48"/>
+      <c r="Z48" s="49"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="42"/>
-      <c r="Z49" s="43"/>
+      <c r="Q49" s="48"/>
+      <c r="Z49" s="49"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="42"/>
-      <c r="Z50" s="43"/>
+      <c r="Q50" s="48"/>
+      <c r="Z50" s="49"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="42"/>
-      <c r="Z51" s="43"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="S51" s="55"/>
+      <c r="Z51" s="49"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="42"/>
-      <c r="Z52" s="43"/>
+      <c r="Q52" s="48"/>
+      <c r="Z52" s="49"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="42"/>
-      <c r="Z53" s="43"/>
+      <c r="Q53" s="48"/>
+      <c r="Z53" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:P1"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="AA1:AI1"/>
     <mergeCell ref="S44:Z44"/>
+    <mergeCell ref="R51:S51"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4571,11 +6332,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.48"/>
+  </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -34,7 +34,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Z-register High Byte</t>
         </r>
@@ -48,9 +47,12 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">DDC6 DDC5 DDC4 DDC3 DDC2 DDC1 DDC0</t>
+          </rPr>
+          <t xml:space="preserve">	-	DDC6 DDC5 DDC4 DDC3 DDC2 DDC1 DDC0
+To use a port as output, assign 1 to it
+DDRC |= 0B00100000;
+If a port is input, you can activate its pullup resitor
+Using PORTC</t>
         </r>
       </text>
     </comment>
@@ -62,14 +64,29 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">–	–	–	–	–	OCF2B OCF2A TOV2
+          </rPr>
+          <t xml:space="preserve">Timer Interrupt Flag Register
+–	–	–	–	–	OCF2B OCF2A TOV2
 7	6	5	4	3	      2           1        0</t>
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0">
+    <comment ref="R12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Output Compare Register A
+Its value gets continuously compared with TCNT0.
+If they match, OCF0A bit in TIFR0 is set
+Can be used for waveform output on OC0A pin</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +94,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[7] I: Global Interrupt Enable.
 [6] T: Bit Copy Storage
@@ -99,7 +115,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-, Y- and Z-pointer registers can be set to index any register in the file</t>
         </r>
@@ -113,7 +128,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Z-register Low Byte</t>
         </r>
@@ -127,9 +141,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PINC6 PINC5 PINC4 PINC3 PINC2 PINC1 PINC0</t>
+          </rPr>
+          <t xml:space="preserve">	-	PINC6 PINC5 PINC4 PINC3 PINC2 PINC1 PINC0
+PINC gets updated with PORTC values every clock cyrcle. It is digitalRead() but for every pin on PORTC</t>
         </r>
       </text>
     </comment>
@@ -141,10 +155,24 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">–	–	ICF1	 –	–	OCF1B OCF1A TOV1
-7	6	   5	 4	3	     2           1          0</t>
+          </rPr>
+          <t xml:space="preserve">Timer Interrupt Flag Register
+–	–	ICF1		–	–	OCF1B OCF1A TOV1
+7	6	   5		4	3	     2           1          0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 (8-bit)
+Its incrementation changes based on the prescaler (found on TCCR0B).
+Compares continuously with OCR0A/B registers.</t>
         </r>
       </text>
     </comment>
@@ -156,7 +184,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Y-Register High Byte</t>
         </r>
@@ -170,9 +197,12 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PORTB7 PORTB6 PORTB5 PORTB4 PORTB3 PORTB2 PORTB1 PORTB0</t>
+          </rPr>
+          <t xml:space="preserve">PORTB7 PORTB6 PORTB5 PORTB4 PORTB3 PORTB2 PORTB1 PORTB0
+By setting a bit of PORT to 1:
+	if PORT is output, the output bit is set to HIGH.
+	if PORT is input, the internal pull-up resistor is activated
+PORTB |= 0B00100000;</t>
         </r>
       </text>
     </comment>
@@ -184,12 +214,23 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">–	–	–	–	–	OCF0B OCF0A TOV0
+          </rPr>
+          <t xml:space="preserve">Timer Interrupt Flag Register
+–	–	–	–	–	OCF0B OCF0A TOV0
 7	6	5	4	3	     2           1         0
-</t>
-        </r>
+Output Compare Flags:
+OCF0B	Sets when TimerCounter0 == OCR0B
+	Executes TimerCounter0 Compare Match Interrupt
+OCF0A	Sets when TimerCounter0 ==OCR0A
+	Executes TimerCounter0 Compare Match Interrupt
+Timer Overflow flag
+TOV0  	Sets when TimerCounter0 overflows 
+	Executes TimerCounter0 Overflow Interrupt</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T12" authorId="0">
+      <text>
         <r>
           <rPr>
             <sz val="11"/>
@@ -197,10 +238,133 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">OCF0B	Becomes 1 when interrupt occurs
-OCF0A	Becomes 1 when interrupt occurs
-TOV0  	Becomes 1 when interrupt occurs
-OCR0A continuesly compares with TCNTx. When matched, the above become 1, even if the interrupt is not enabled
+          <t xml:space="preserve">Timer Counter Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Page 109 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A/B bits.
+Only active when WGM Bits are non-PWM mode.
+If Set, Compare Match is forced on Waveform Generation unit.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[7] FOC0A 
+[6] FOC0B 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] –	
+[4] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM01/00, found in TCCR0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode ana Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM02
+Clock Select: Control </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS02
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[1] CS01 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[0] CS00
 </t>
         </r>
       </text>
@@ -213,7 +377,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Y-Register Low Byte</t>
         </r>
@@ -227,9 +390,91 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">DDB7 DDB6 DDB5 DDB4 DDB3 DDB2 DDB1 DDB0</t>
+          </rPr>
+          <t xml:space="preserve">DDB7 DDB6 DDB5 DDB4 DDB3 DDB2 DDB1 DDB0
+To use a port as output, assign 1 to it
+DDRB |= 0B00100000;
+If a port is input, you can activate its pullup resitor
+Using PORTB
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer Counter Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Page 104 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+Control the OC0A (Pin 6, PWM) output behavior.
+[7] COM0A1 
+[6] COM0A0 
+Compare Match Output B Mode
+Control the OC0B (Pin 5, PWM) output behavior.
+[5] COM0B1 
+[4] COM0B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM01 
+[0] WGM00</t>
         </r>
       </text>
     </comment>
@@ -241,7 +486,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-Register High Byte</t>
         </r>
@@ -255,9 +499,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PINB7 PINB6 PINB5 PINB4 PINB3 PINB2 PINB1 PINB0</t>
+          </rPr>
+          <t xml:space="preserve">PINB7 PINB6 PINB5 PINB4 PINB3 PINB2 PINB1 PINB0
+PINB gets updated with PORTB values every clock cyrcle. It is digitalRead() but for every pin on PORTB</t>
         </r>
       </text>
     </comment>
@@ -269,9 +513,24 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PORTD6 PORTD5 PORTD4 PORTD3 PORTD2 PORTD1 PORTD0</t>
+          </rPr>
+          <t xml:space="preserve">PORTD6 PORTD5 PORTD4 PORTD3 PORTD2 PORTD1 PORTD0
+By setting a bit of PORT to 1:
+	if PORT is output, the output bit is set to HIGH.
+	if PORT is input, the internal pull-up resistor is activated
+PORTB |= 0B00100000;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">–	–	–	–	–	PCIF2 PCIF1 PCIF0</t>
         </r>
       </text>
     </comment>
@@ -283,7 +542,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-Register Low Byte
 </t>
@@ -298,9 +556,12 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">DDD7 DDD6 DDD5 DDD4 DDD3 DDD2 DDD1 DDD0</t>
+          </rPr>
+          <t xml:space="preserve">DDD7 DDD6 DDD5 DDD4 DDD3 DDD2 DDD1 DDD0
+To use a port as output, assign 1 to it
+DDRD |= 0B00100000;
+If a port is input, you can activate its pullup resitor
+Using PORTD</t>
         </r>
       </text>
     </comment>
@@ -312,9 +573,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PIND7 PIND6 PIND5 PIND4 PIND3 PIND2 PIND1 PIND0</t>
+          </rPr>
+          <t xml:space="preserve">PIND7 PIND6 PIND5 PIND4 PIND3 PIND2 PIND1 PIND0
+PIND gets updated with PORTD values every clock cyrcle. It is digitalRead() but for every pin on PORTD</t>
         </r>
       </text>
     </comment>
@@ -326,9 +587,24 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">PORTC6 PORTC5 PORTC4 PORTC3 PORTC2 PORTC1 PORTC0</t>
+          </rPr>
+          <t xml:space="preserve">	-	PORTC6 PORTC5 PORTC4 PORTC3 PORTC2 PORTC1 PORTC0
+By setting a bit of PORT to 1:
+	if PORT is output, the output bit is set to HIGH.
+	if PORT is input, the internal pull-up resistor is activated
+PORTB |= 0B00100000;</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Output Compare Register B</t>
         </r>
       </text>
     </comment>
@@ -340,7 +616,6 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Initial SP value.
 Is implemented as two 8-bit registers in the I/O space [SPH/SPL].
@@ -353,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="155">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -559,7 +834,7 @@
     <t xml:space="preserve">PINB</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">–</t>
   </si>
   <si>
     <t xml:space="preserve">20H</t>
@@ -568,7 +843,7 @@
     <t xml:space="preserve">2FH</t>
   </si>
   <si>
-    <t xml:space="preserve">PORTD7</t>
+    <t xml:space="preserve">PORTD</t>
   </si>
   <si>
     <t xml:space="preserve">DDRD</t>
@@ -601,31 +876,73 @@
     <t xml:space="preserve">3FH</t>
   </si>
   <si>
+    <t xml:space="preserve">EECR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIMSK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EIFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCIFR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCNT0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR0A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTCCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEARH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEARL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EEDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4FH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5FH</t>
+  </si>
+  <si>
     <t xml:space="preserve">SREG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">38H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4FH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5FH</t>
   </si>
   <si>
     <t xml:space="preserve">58H</t>
@@ -785,13 +1102,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -810,11 +1126,87 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF00A933"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -822,7 +1214,18 @@
       <color rgb="FF55308D"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -830,32 +1233,16 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -865,7 +1252,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -874,8 +1261,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF404040"/>
-        <bgColor rgb="FF333300"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
     <fill>
@@ -886,8 +1297,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF404040"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC0C0C0"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
@@ -897,12 +1320,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -1018,7 +1456,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1042,8 +1480,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1052,16 +1541,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1072,6 +1557,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1080,15 +1569,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1096,63 +1585,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1160,101 +1649,134 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Heading" xfId="20"/>
+    <cellStyle name="Heading 1" xfId="21"/>
+    <cellStyle name="Heading 2" xfId="22"/>
+    <cellStyle name="Text" xfId="23"/>
+    <cellStyle name="Note" xfId="24"/>
+    <cellStyle name="Footnote" xfId="25"/>
+    <cellStyle name="Hyperlink" xfId="26"/>
+    <cellStyle name="Status" xfId="27"/>
+    <cellStyle name="Good" xfId="28"/>
+    <cellStyle name="Neutral" xfId="29"/>
+    <cellStyle name="Bad" xfId="30"/>
+    <cellStyle name="Warning" xfId="31"/>
+    <cellStyle name="Error" xfId="32"/>
+    <cellStyle name="Accent" xfId="33"/>
+    <cellStyle name="Accent 1" xfId="34"/>
+    <cellStyle name="Accent 2" xfId="35"/>
+    <cellStyle name="Accent 3" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -1266,7 +1788,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0563C1"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1282,7 +1804,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1294,11 +1816,11 @@
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF404040"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF55308D"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1309,15 +1831,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:colOff>461520</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>419400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>163080</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1326,86 +1848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17137800" y="510840"/>
-          <a:ext cx="342000" cy="708480"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="955" h="1973">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:cubicBezTo>
-                <a:pt x="238" y="0"/>
-                <a:pt x="477" y="82"/>
-                <a:pt x="477" y="164"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="477" y="821"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="477" y="903"/>
-                <a:pt x="715" y="986"/>
-                <a:pt x="954" y="986"/>
-              </a:cubicBezTo>
-              <a:cubicBezTo>
-                <a:pt x="715" y="986"/>
-                <a:pt x="477" y="1068"/>
-                <a:pt x="477" y="1150"/>
-              </a:cubicBezTo>
-              <a:lnTo>
-                <a:pt x="477" y="1807"/>
-              </a:lnTo>
-              <a:cubicBezTo>
-                <a:pt x="477" y="1889"/>
-                <a:pt x="238" y="1972"/>
-                <a:pt x="0" y="1972"/>
-              </a:cubicBezTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>461520</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="17521920" y="195840"/>
-          <a:ext cx="1864800" cy="1179000"/>
+          <a:ext cx="1864440" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,19 +1930,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
+      <xdr:colOff>425880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17144640" y="1220400"/>
-          <a:ext cx="342000" cy="1381680"/>
+          <a:ext cx="341640" cy="1381320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1564,19 +2008,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17528400" y="1893960"/>
-          <a:ext cx="1397160" cy="336600"/>
+          <a:ext cx="1396800" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1641,19 +2085,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>437760</xdr:colOff>
+      <xdr:colOff>437400</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17156160" y="2609280"/>
-          <a:ext cx="342000" cy="3485520"/>
+          <a:ext cx="341640" cy="3485160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1719,19 +2163,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>388440</xdr:colOff>
+      <xdr:colOff>388080</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17540640" y="4196520"/>
-          <a:ext cx="1455840" cy="336600"/>
+          <a:ext cx="1455480" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,19 +2240,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>449280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>11520</xdr:rowOff>
+      <xdr:rowOff>11160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17168040" y="6102000"/>
-          <a:ext cx="342000" cy="2174400"/>
+          <a:ext cx="341640" cy="2174040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1874,19 +2318,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>223200</xdr:colOff>
+      <xdr:colOff>222840</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17588160" y="7322760"/>
-          <a:ext cx="2473560" cy="336600"/>
+          <a:ext cx="2473200" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1935,13 +2379,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Image 1" descr=""/>
+        <xdr:cNvPr id="7" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1951,7 +2395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5392800" cy="1121400"/>
+          <a:ext cx="5392440" cy="1121040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1972,13 +2416,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
+      <xdr:colOff>376200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 2" descr=""/>
+        <xdr:cNvPr id="8" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1988,7 +2432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19310400" y="1796400"/>
-          <a:ext cx="4578840" cy="3031200"/>
+          <a:ext cx="4578480" cy="3030840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1998,6 +2442,84 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>77400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>419040</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17137800" y="510840"/>
+          <a:ext cx="341640" cy="708120"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="955" h="1973">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="238" y="0"/>
+                <a:pt x="477" y="82"/>
+                <a:pt x="477" y="164"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="477" y="821"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="477" y="903"/>
+                <a:pt x="715" y="986"/>
+                <a:pt x="954" y="986"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="715" y="986"/>
+                <a:pt x="477" y="1068"/>
+                <a:pt x="477" y="1150"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="477" y="1807"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="477" y="1889"/>
+                <a:pt x="238" y="1972"/>
+                <a:pt x="0" y="1972"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2010,11 +2532,11 @@
   </sheetPr>
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="8.72"/>
@@ -2030,7 +2552,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="29" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2553,10 +3074,10 @@
       <c r="R10" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="S10" s="29" t="s">
+      <c r="S10" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="T10" s="29" t="s">
+      <c r="T10" s="25" t="s">
         <v>79</v>
       </c>
       <c r="U10" s="25" t="s">
@@ -2574,7 +3095,7 @@
       <c r="Y10" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="Z10" s="30" t="s">
+      <c r="Z10" s="29" t="s">
         <v>80</v>
       </c>
       <c r="AA10" s="14"/>
@@ -2607,18 +3128,32 @@
       <c r="Q11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="R11" s="31" t="s">
+      <c r="R11" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="30" t="s">
+      <c r="S11" s="30" t="s">
         <v>83</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="U11" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="V11" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y11" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" s="29" t="s">
+        <v>87</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="8"/>
@@ -2648,18 +3183,34 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R12" s="31"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="30" t="s">
-        <v>85</v>
+        <v>88</v>
+      </c>
+      <c r="R12" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="S12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="T12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="U12" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="W12" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="X12" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y12" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z12" s="29" t="s">
+        <v>97</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="8"/>
@@ -2689,18 +3240,20 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="R13" s="31"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="30" t="s">
-        <v>87</v>
+        <v>98</v>
+      </c>
+      <c r="R13" s="24"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="29" t="s">
+        <v>100</v>
       </c>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
@@ -2730,18 +3283,18 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R14" s="31"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="30" t="s">
-        <v>89</v>
+        <v>101</v>
+      </c>
+      <c r="R14" s="24"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="31"/>
+      <c r="Z14" s="29" t="s">
+        <v>102</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="8"/>
@@ -2771,18 +3324,20 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="R15" s="31"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="30" t="s">
-        <v>91</v>
+        <v>103</v>
+      </c>
+      <c r="R15" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="8"/>
@@ -2812,18 +3367,18 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="R16" s="34"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="30" t="s">
-        <v>93</v>
+        <v>106</v>
+      </c>
+      <c r="R16" s="36"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="38"/>
+      <c r="Z16" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AB16" s="8"/>
@@ -2853,18 +3408,18 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="R17" s="34"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="30" t="s">
-        <v>95</v>
+        <v>108</v>
+      </c>
+      <c r="R17" s="36"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="29" t="s">
+        <v>109</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AB17" s="8"/>
@@ -2894,18 +3449,18 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="R18" s="34"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="36"/>
-      <c r="Z18" s="30" t="s">
-        <v>97</v>
+        <v>110</v>
+      </c>
+      <c r="R18" s="36"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="8"/>
@@ -2935,18 +3490,18 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R19" s="34"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="30" t="s">
-        <v>99</v>
+        <v>112</v>
+      </c>
+      <c r="R19" s="36"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="29" t="s">
+        <v>113</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
@@ -2976,18 +3531,18 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="34"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="30" t="s">
-        <v>101</v>
+        <v>114</v>
+      </c>
+      <c r="R20" s="36"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="29" t="s">
+        <v>115</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="8"/>
@@ -3017,18 +3572,18 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="R21" s="34"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="30" t="s">
-        <v>103</v>
+        <v>116</v>
+      </c>
+      <c r="R21" s="36"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="8"/>
@@ -3042,7 +3597,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3060,18 +3615,18 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="R22" s="34"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="30" t="s">
-        <v>106</v>
+        <v>119</v>
+      </c>
+      <c r="R22" s="36"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="AA22" s="14"/>
       <c r="AB22" s="8"/>
@@ -3101,18 +3656,18 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="R23" s="34"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="30" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="R23" s="36"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="8"/>
@@ -3133,7 +3688,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -3144,18 +3699,18 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R24" s="34"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="30" t="s">
-        <v>111</v>
+        <v>124</v>
+      </c>
+      <c r="R24" s="36"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="29" t="s">
+        <v>125</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="8"/>
@@ -3185,18 +3740,18 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="R25" s="34"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="30" t="s">
-        <v>113</v>
+        <v>126</v>
+      </c>
+      <c r="R25" s="36"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
@@ -3226,18 +3781,18 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="R26" s="34"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="30" t="s">
-        <v>115</v>
+        <v>128</v>
+      </c>
+      <c r="R26" s="36"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+      <c r="U26" s="37"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="37"/>
+      <c r="X26" s="37"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="29" t="s">
+        <v>129</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="8"/>
@@ -3267,18 +3822,18 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R27" s="34"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="36"/>
-      <c r="Z27" s="30" t="s">
-        <v>117</v>
+        <v>130</v>
+      </c>
+      <c r="R27" s="36"/>
+      <c r="S27" s="37"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="37"/>
+      <c r="X27" s="37"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="29" t="s">
+        <v>131</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="8"/>
@@ -3308,18 +3863,18 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="R28" s="34"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="30" t="s">
-        <v>119</v>
+        <v>132</v>
+      </c>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="29" t="s">
+        <v>133</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="8"/>
@@ -3349,18 +3904,18 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="R29" s="34"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="30" t="s">
-        <v>121</v>
+        <v>134</v>
+      </c>
+      <c r="R29" s="36"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="29" t="s">
+        <v>135</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="8"/>
@@ -3374,7 +3929,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3392,18 +3947,18 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="R30" s="34"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="30" t="s">
-        <v>124</v>
+        <v>137</v>
+      </c>
+      <c r="R30" s="36"/>
+      <c r="S30" s="37"/>
+      <c r="T30" s="37"/>
+      <c r="U30" s="37"/>
+      <c r="V30" s="37"/>
+      <c r="W30" s="37"/>
+      <c r="X30" s="37"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="8"/>
@@ -3433,18 +3988,18 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="R31" s="34"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="30" t="s">
-        <v>126</v>
+        <v>139</v>
+      </c>
+      <c r="R31" s="36"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="40"/>
+      <c r="Z31" s="29" t="s">
+        <v>140</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
@@ -3474,18 +4029,18 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="30" t="s">
-        <v>128</v>
+        <v>141</v>
+      </c>
+      <c r="R32" s="36"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="39"/>
+      <c r="Y32" s="40"/>
+      <c r="Z32" s="29" t="s">
+        <v>142</v>
       </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="8"/>
@@ -3515,18 +4070,18 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="R33" s="34"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="36"/>
-      <c r="Z33" s="30" t="s">
-        <v>130</v>
+        <v>143</v>
+      </c>
+      <c r="R33" s="36"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="40"/>
+      <c r="Z33" s="29" t="s">
+        <v>144</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="8"/>
@@ -3556,18 +4111,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="R34" s="34"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="36"/>
-      <c r="Z34" s="30" t="s">
-        <v>132</v>
+        <v>145</v>
+      </c>
+      <c r="R34" s="36"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="40"/>
+      <c r="Z34" s="29" t="s">
+        <v>146</v>
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="8"/>
@@ -3597,22 +4152,22 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="R35" s="37"/>
-      <c r="S35" s="38"/>
-      <c r="T35" s="38"/>
-      <c r="U35" s="38"/>
-      <c r="V35" s="38"/>
-      <c r="W35" s="38"/>
-      <c r="X35" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="Y35" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z35" s="30" t="s">
-        <v>136</v>
+        <v>147</v>
+      </c>
+      <c r="R35" s="41"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
+      <c r="W35" s="42"/>
+      <c r="X35" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y35" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z35" s="29" t="s">
+        <v>150</v>
       </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="8"/>
@@ -3626,122 +4181,122 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="40"/>
-      <c r="Z36" s="41"/>
+      <c r="Q36" s="44"/>
+      <c r="Z36" s="45"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="40"/>
-      <c r="Z37" s="41"/>
+      <c r="Q37" s="44"/>
+      <c r="Z37" s="45"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="40"/>
-      <c r="Z38" s="41"/>
+      <c r="Q38" s="44"/>
+      <c r="Z38" s="45"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="40"/>
-      <c r="Z39" s="41"/>
+      <c r="Q39" s="44"/>
+      <c r="Z39" s="45"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="40"/>
-      <c r="Z40" s="41"/>
+      <c r="Q40" s="44"/>
+      <c r="Z40" s="45"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="40"/>
-      <c r="Z41" s="41"/>
+      <c r="Q41" s="44"/>
+      <c r="Z41" s="45"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="40"/>
-      <c r="Z42" s="41"/>
+      <c r="Q42" s="44"/>
+      <c r="Z42" s="45"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="40"/>
-      <c r="Z43" s="41"/>
+      <c r="Q43" s="44"/>
+      <c r="Z43" s="45"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="42"/>
-      <c r="S44" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
-      <c r="W44" s="43"/>
-      <c r="X44" s="43"/>
-      <c r="Y44" s="43"/>
-      <c r="Z44" s="43"/>
+      <c r="Q44" s="44"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="T44" s="47"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="47"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="47"/>
+      <c r="Y44" s="47"/>
+      <c r="Z44" s="47"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="44"/>
+      <c r="Q45" s="44"/>
+      <c r="R45" s="48"/>
       <c r="S45" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="Z45" s="41"/>
+        <v>152</v>
+      </c>
+      <c r="Z45" s="45"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="45"/>
+      <c r="Q46" s="44"/>
+      <c r="R46" s="49"/>
       <c r="S46" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z46" s="41"/>
+        <v>153</v>
+      </c>
+      <c r="Z46" s="45"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="46"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="50"/>
       <c r="S47" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z47" s="41"/>
+        <v>154</v>
+      </c>
+      <c r="Z47" s="45"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="40"/>
-      <c r="Z48" s="41"/>
+      <c r="Q48" s="44"/>
+      <c r="Z48" s="45"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="40"/>
-      <c r="Z49" s="41"/>
+      <c r="Q49" s="44"/>
+      <c r="Z49" s="45"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="40"/>
-      <c r="Z50" s="41"/>
+      <c r="Q50" s="44"/>
+      <c r="Z50" s="45"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="40"/>
-      <c r="Z51" s="41"/>
+      <c r="Q51" s="44"/>
+      <c r="Z51" s="45"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="40"/>
-      <c r="Z52" s="41"/>
+      <c r="Q52" s="44"/>
+      <c r="Z52" s="45"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="40"/>
-      <c r="Z53" s="41"/>
+      <c r="Q53" s="44"/>
+      <c r="Z53" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3770,14 +4325,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.47"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -76,6 +76,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -167,6 +168,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -262,26 +264,8 @@
 Force Output Compare A/B bits.
 Only active when WGM Bits are non-PWM mode.
 If Set, Compare Match is forced on Waveform Generation unit.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[7] FOC0A 
+[7] FOC0A 
 [6] FOC0B 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
 [5] –	
 [4] –	
 </t>
@@ -346,25 +330,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">[2] CS02
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[1] CS01 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[0] CS00
+[1] CS01 
+[0] CS00
 </t>
         </r>
       </text>
@@ -405,6 +372,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -414,6 +382,7 @@
           <rPr>
             <b val="true"/>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -423,6 +392,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -443,6 +413,7 @@
           <rPr>
             <b val="true"/>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -451,6 +422,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -461,6 +433,7 @@
           <rPr>
             <b val="true"/>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -470,6 +443,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -527,6 +501,7 @@
         <r>
           <rPr>
             <sz val="11"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -604,7 +579,19 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Timer/Counter0 Output Compare Register B</t>
+          <t xml:space="preserve">Timer/Counter0 Output Compare Register B
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Its value gets continuously compared with TCNT0.
+If they match, OCF0B bit in TIFR0 is set
+Can be used for waveform output on OC0B pin</t>
         </r>
       </text>
     </comment>
@@ -628,7 +615,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="178">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -927,6 +914,21 @@
     <t xml:space="preserve">4FH</t>
   </si>
   <si>
+    <t xml:space="preserve">SPDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOR2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIOR1</t>
+  </si>
+  <si>
     <t xml:space="preserve">OCR0B</t>
   </si>
   <si>
@@ -936,6 +938,21 @@
     <t xml:space="preserve">57H</t>
   </si>
   <si>
+    <t xml:space="preserve">SPMCSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCUCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCUSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">50H</t>
   </si>
   <si>
@@ -945,24 +962,66 @@
     <t xml:space="preserve">SREG</t>
   </si>
   <si>
+    <t xml:space="preserve">SPH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPL</t>
+  </si>
+  <si>
     <t xml:space="preserve">58H</t>
   </si>
   <si>
     <t xml:space="preserve">67H</t>
   </si>
   <si>
+    <t xml:space="preserve">OSCCAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLKPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDTCSR</t>
+  </si>
+  <si>
     <t xml:space="preserve">60H</t>
   </si>
   <si>
     <t xml:space="preserve">6FH</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMSK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIMSK0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCMSK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCMSK1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCMSK0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EICRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCICR</t>
+  </si>
+  <si>
     <t xml:space="preserve">68H</t>
   </si>
   <si>
     <t xml:space="preserve">77H</t>
   </si>
   <si>
+    <t xml:space="preserve">TIMSK2</t>
+  </si>
+  <si>
     <t xml:space="preserve">70H</t>
   </si>
   <si>
@@ -1072,9 +1131,6 @@
   </si>
   <si>
     <t xml:space="preserve">FFH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPL</t>
   </si>
   <si>
     <t xml:space="preserve"> SPH</t>
@@ -1102,7 +1158,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1228,13 +1284,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -1243,6 +1292,7 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1532,7 +1582,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1661,28 +1711,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2532,8 +2570,8 @@
   </sheetPr>
   <dimension ref="A1:AI53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3194,7 +3232,7 @@
       <c r="T12" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="U12" s="32" t="s">
+      <c r="U12" s="25" t="s">
         <v>92</v>
       </c>
       <c r="V12" s="25" t="s">
@@ -3220,7 +3258,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="33"/>
+      <c r="AI12" s="32"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -3242,18 +3280,32 @@
       <c r="Q13" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="31" t="s">
+      <c r="R13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="25" t="s">
         <v>99</v>
       </c>
+      <c r="T13" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="W13" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="Z13" s="29" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
@@ -3263,7 +3315,7 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="33"/>
+      <c r="AI13" s="32"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -3283,18 +3335,34 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
       <c r="Q14" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="R14" s="24"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="31"/>
+        <v>106</v>
+      </c>
+      <c r="R14" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="T14" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="V14" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="W14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y14" s="25" t="s">
+        <v>111</v>
+      </c>
       <c r="Z14" s="29" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="8"/>
@@ -3324,20 +3392,34 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="R15" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="R15" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="S15" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="T15" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="U15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="V15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="W15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="X15" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y15" s="25" t="s">
+        <v>68</v>
+      </c>
       <c r="Z15" s="29" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="8"/>
@@ -3367,18 +3449,34 @@
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="R16" s="36"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="38"/>
+        <v>118</v>
+      </c>
+      <c r="R16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="T16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="U16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="W16" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X16" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y16" s="33" t="s">
+        <v>122</v>
+      </c>
       <c r="Z16" s="29" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AB16" s="8"/>
@@ -3388,7 +3486,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="33"/>
+      <c r="AI16" s="32"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -3408,18 +3506,34 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="R17" s="36"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="38"/>
+        <v>124</v>
+      </c>
+      <c r="R17" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="S17" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="U17" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="V17" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="W17" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y17" s="33" t="s">
+        <v>131</v>
+      </c>
       <c r="Z17" s="29" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AB17" s="8"/>
@@ -3429,7 +3543,7 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="33"/>
+      <c r="AI17" s="32"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -3449,18 +3563,34 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
       <c r="Q18" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="38"/>
+        <v>133</v>
+      </c>
+      <c r="R18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="U18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="V18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="W18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="X18" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>134</v>
+      </c>
       <c r="Z18" s="29" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="8"/>
@@ -3470,7 +3600,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="33"/>
+      <c r="AI18" s="32"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -3490,18 +3620,18 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="R19" s="36"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
+        <v>136</v>
+      </c>
+      <c r="R19" s="34"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="35"/>
       <c r="Z19" s="29" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
@@ -3511,7 +3641,7 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-      <c r="AI19" s="33"/>
+      <c r="AI19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -3531,18 +3661,18 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="R20" s="36"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="38"/>
+        <v>138</v>
+      </c>
+      <c r="R20" s="34"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="35"/>
       <c r="Z20" s="29" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="8"/>
@@ -3552,7 +3682,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-      <c r="AI20" s="33"/>
+      <c r="AI20" s="32"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -3572,18 +3702,18 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="R21" s="36"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="38"/>
+        <v>140</v>
+      </c>
+      <c r="R21" s="34"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="35"/>
       <c r="Z21" s="29" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="8"/>
@@ -3593,11 +3723,11 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="33"/>
+      <c r="AI21" s="32"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3615,18 +3745,18 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="38"/>
+        <v>143</v>
+      </c>
+      <c r="R22" s="34"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="35"/>
       <c r="Z22" s="29" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="AA22" s="14"/>
       <c r="AB22" s="8"/>
@@ -3636,7 +3766,7 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="33"/>
+      <c r="AI22" s="32"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -3656,18 +3786,18 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="R23" s="36"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="38"/>
+        <v>145</v>
+      </c>
+      <c r="R23" s="34"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="35"/>
       <c r="Z23" s="29" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="8"/>
@@ -3677,7 +3807,7 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="33"/>
+      <c r="AI23" s="32"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -3688,7 +3818,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -3699,18 +3829,18 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="R24" s="36"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="38"/>
+        <v>148</v>
+      </c>
+      <c r="R24" s="34"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="35"/>
       <c r="Z24" s="29" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="8"/>
@@ -3720,7 +3850,7 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="33"/>
+      <c r="AI24" s="32"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
@@ -3740,18 +3870,18 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="R25" s="36"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="38"/>
+        <v>150</v>
+      </c>
+      <c r="R25" s="34"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="35"/>
       <c r="Z25" s="29" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
@@ -3761,7 +3891,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="33"/>
+      <c r="AI25" s="32"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -3781,18 +3911,18 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="R26" s="36"/>
-      <c r="S26" s="37"/>
-      <c r="T26" s="37"/>
-      <c r="U26" s="37"/>
-      <c r="V26" s="37"/>
-      <c r="W26" s="37"/>
-      <c r="X26" s="37"/>
-      <c r="Y26" s="38"/>
+        <v>152</v>
+      </c>
+      <c r="R26" s="34"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="35"/>
       <c r="Z26" s="29" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="8"/>
@@ -3802,7 +3932,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
-      <c r="AI26" s="33"/>
+      <c r="AI26" s="32"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -3822,18 +3952,18 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="R27" s="36"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="37"/>
-      <c r="U27" s="37"/>
-      <c r="V27" s="37"/>
-      <c r="W27" s="37"/>
-      <c r="X27" s="37"/>
-      <c r="Y27" s="38"/>
+        <v>154</v>
+      </c>
+      <c r="R27" s="34"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="35"/>
       <c r="Z27" s="29" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="8"/>
@@ -3843,7 +3973,7 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="33"/>
+      <c r="AI27" s="32"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -3863,18 +3993,18 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="R28" s="36"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="37"/>
-      <c r="W28" s="37"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="38"/>
+        <v>156</v>
+      </c>
+      <c r="R28" s="34"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="35"/>
       <c r="Z28" s="29" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="8"/>
@@ -3884,7 +4014,7 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="33"/>
+      <c r="AI28" s="32"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
@@ -3904,18 +4034,18 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="R29" s="36"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="37"/>
-      <c r="V29" s="37"/>
-      <c r="W29" s="37"/>
-      <c r="X29" s="37"/>
-      <c r="Y29" s="38"/>
+        <v>158</v>
+      </c>
+      <c r="R29" s="34"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="35"/>
       <c r="Z29" s="29" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="8"/>
@@ -3925,11 +4055,11 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="33"/>
+      <c r="AI29" s="32"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3947,18 +4077,18 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="R30" s="36"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="37"/>
-      <c r="V30" s="37"/>
-      <c r="W30" s="37"/>
-      <c r="X30" s="37"/>
-      <c r="Y30" s="38"/>
+        <v>161</v>
+      </c>
+      <c r="R30" s="34"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="35"/>
       <c r="Z30" s="29" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="8"/>
@@ -3968,7 +4098,7 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="33"/>
+      <c r="AI30" s="32"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
@@ -3988,18 +4118,18 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="R31" s="36"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="40"/>
+        <v>163</v>
+      </c>
+      <c r="R31" s="34"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
+      <c r="V31" s="36"/>
+      <c r="W31" s="36"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="37"/>
       <c r="Z31" s="29" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
@@ -4009,7 +4139,7 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="33"/>
+      <c r="AI31" s="32"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -4029,18 +4159,18 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="R32" s="36"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="39"/>
-      <c r="U32" s="39"/>
-      <c r="V32" s="39"/>
-      <c r="W32" s="39"/>
-      <c r="X32" s="39"/>
-      <c r="Y32" s="40"/>
+        <v>165</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="37"/>
       <c r="Z32" s="29" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="8"/>
@@ -4050,7 +4180,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="33"/>
+      <c r="AI32" s="32"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -4070,18 +4200,18 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="39"/>
-      <c r="T33" s="39"/>
-      <c r="U33" s="39"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="39"/>
-      <c r="Y33" s="40"/>
+        <v>167</v>
+      </c>
+      <c r="R33" s="34"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="37"/>
       <c r="Z33" s="29" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="8"/>
@@ -4091,7 +4221,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="33"/>
+      <c r="AI33" s="32"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
@@ -4111,18 +4241,18 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="R34" s="36"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="40"/>
+        <v>169</v>
+      </c>
+      <c r="R34" s="34"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
+      <c r="V34" s="36"/>
+      <c r="W34" s="36"/>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="37"/>
       <c r="Z34" s="29" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="8"/>
@@ -4132,7 +4262,7 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="33"/>
+      <c r="AI34" s="32"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
@@ -4152,22 +4282,22 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y35" s="43" t="s">
-        <v>149</v>
+        <v>171</v>
+      </c>
+      <c r="R35" s="38"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="39"/>
+      <c r="U35" s="39"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y35" s="40" t="s">
+        <v>172</v>
       </c>
       <c r="Z35" s="29" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="8"/>
@@ -4177,126 +4307,126 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="33"/>
+      <c r="AI35" s="32"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="44"/>
-      <c r="Z36" s="45"/>
+      <c r="Q36" s="41"/>
+      <c r="Z36" s="42"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="44"/>
-      <c r="Z37" s="45"/>
+      <c r="Q37" s="41"/>
+      <c r="Z37" s="42"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="44"/>
-      <c r="Z38" s="45"/>
+      <c r="Q38" s="41"/>
+      <c r="Z38" s="42"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="44"/>
-      <c r="Z39" s="45"/>
+      <c r="Q39" s="41"/>
+      <c r="Z39" s="42"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="44"/>
-      <c r="Z40" s="45"/>
+      <c r="Q40" s="41"/>
+      <c r="Z40" s="42"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="44"/>
-      <c r="Z41" s="45"/>
+      <c r="Q41" s="41"/>
+      <c r="Z41" s="42"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="44"/>
-      <c r="Z42" s="45"/>
+      <c r="Q42" s="41"/>
+      <c r="Z42" s="42"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="44"/>
-      <c r="Z43" s="45"/>
+      <c r="Q43" s="41"/>
+      <c r="Z43" s="42"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="46"/>
-      <c r="S44" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="T44" s="47"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="47"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="47"/>
-      <c r="Y44" s="47"/>
-      <c r="Z44" s="47"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="T44" s="44"/>
+      <c r="U44" s="44"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="44"/>
+      <c r="X44" s="44"/>
+      <c r="Y44" s="44"/>
+      <c r="Z44" s="44"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="48"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="45"/>
       <c r="S45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z45" s="45"/>
+        <v>175</v>
+      </c>
+      <c r="Z45" s="42"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="49"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="46"/>
       <c r="S46" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z46" s="45"/>
+        <v>176</v>
+      </c>
+      <c r="Z46" s="42"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="50"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="47"/>
       <c r="S47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z47" s="45"/>
+        <v>177</v>
+      </c>
+      <c r="Z47" s="42"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="44"/>
-      <c r="Z48" s="45"/>
+      <c r="Q48" s="41"/>
+      <c r="Z48" s="42"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="44"/>
-      <c r="Z49" s="45"/>
+      <c r="Q49" s="41"/>
+      <c r="Z49" s="42"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="44"/>
-      <c r="Z50" s="45"/>
+      <c r="Q50" s="41"/>
+      <c r="Z50" s="42"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="44"/>
-      <c r="Z51" s="45"/>
+      <c r="Q51" s="41"/>
+      <c r="Z51" s="42"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="44"/>
-      <c r="Z52" s="45"/>
+      <c r="Q52" s="41"/>
+      <c r="Z52" s="42"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="44"/>
-      <c r="Z53" s="45"/>
+      <c r="Q53" s="41"/>
+      <c r="Z53" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -34,6 +34,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Z-register High Byte</t>
         </r>
@@ -47,6 +48,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">	-	DDC6 DDC5 DDC4 DDC3 DDC2 DDC1 DDC0
 To use a port as output, assign 1 to it
@@ -64,6 +66,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Interrupt Flag Register
 –	–	–	–	–	OCF2B OCF2A TOV2
@@ -79,6 +82,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter0 Output Compare Register A
 Its value gets continuously compared with TCNT0.
@@ -95,6 +99,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[7] I: Global Interrupt Enable.
 [6] T: Bit Copy Storage
@@ -116,6 +121,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-, Y- and Z-pointer registers can be set to index any register in the file</t>
         </r>
@@ -129,6 +135,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Z-register Low Byte</t>
         </r>
@@ -142,6 +149,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">	-	PINC6 PINC5 PINC4 PINC3 PINC2 PINC1 PINC0
 PINC gets updated with PORTC values every clock cyrcle. It is digitalRead() but for every pin on PORTC</t>
@@ -156,6 +164,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Interrupt Flag Register
 –	–	ICF1		–	–	OCF1B OCF1A TOV1
@@ -171,10 +180,51 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter0 (8-bit)
 Its incrementation changes based on the prescaler (found on TCCR0B).
 Compares continuously with OCR0A/B registers.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Enable Specific Interrupt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer Interrupt Mask Register
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[7] –
+[6] –
+[5] –
+[4] –
+[3] –
+[2] OCIE0B
+[1] OCIE0A
+[0] TOIE0</t>
         </r>
       </text>
     </comment>
@@ -186,6 +236,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Y-Register High Byte</t>
         </r>
@@ -199,6 +250,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PORTB7 PORTB6 PORTB5 PORTB4 PORTB3 PORTB2 PORTB1 PORTB0
 By setting a bit of PORT to 1:
@@ -216,6 +268,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Interrupt Flag Register
 –	–	–	–	–	OCF0B OCF0A TOV0
@@ -239,6 +292,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Counter Control Register B </t>
         </r>
@@ -249,6 +303,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[Page 109 Datasheet]
 </t>
@@ -259,6 +314,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Force Output Compare A/B bits.
@@ -277,6 +333,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM01/00, found in TCCR0A</t>
         </r>
@@ -286,6 +343,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">, these control the 
 </t>
@@ -297,6 +355,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Waveform Generation Mode ana Interrupt Modes
 </t>
@@ -307,6 +366,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[3] WGM02
 Clock Select: Control </t>
@@ -318,6 +378,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Prescaler
 </t>
@@ -328,6 +389,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[2] CS02
 [1] CS01 
@@ -344,6 +406,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Y-Register Low Byte</t>
         </r>
@@ -357,6 +420,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">DDB7 DDB6 DDB5 DDB4 DDB3 DDB2 DDB1 DDB0
 To use a port as output, assign 1 to it
@@ -375,6 +439,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer Counter Control Register A </t>
         </r>
@@ -385,6 +450,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[Page 104 Datasheet]
 </t>
@@ -395,6 +461,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Compare Match Output A Mode
@@ -416,6 +483,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
         </r>
@@ -425,6 +493,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">, these control the 
 </t>
@@ -436,6 +505,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
 </t>
@@ -446,6 +516,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[1] WGM01 
 [0] WGM00</t>
@@ -460,6 +531,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-Register High Byte</t>
         </r>
@@ -473,6 +545,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PINB7 PINB6 PINB5 PINB4 PINB3 PINB2 PINB1 PINB0
 PINB gets updated with PORTB values every clock cyrcle. It is digitalRead() but for every pin on PORTB</t>
@@ -487,6 +560,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PORTD6 PORTD5 PORTD4 PORTD3 PORTD2 PORTD1 PORTD0
 By setting a bit of PORT to 1:
@@ -504,6 +578,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">–	–	–	–	–	PCIF2 PCIF1 PCIF0</t>
         </r>
@@ -517,6 +592,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">X-Register Low Byte
 </t>
@@ -531,6 +607,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">DDD7 DDD6 DDD5 DDD4 DDD3 DDD2 DDD1 DDD0
 To use a port as output, assign 1 to it
@@ -548,6 +625,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">PIND7 PIND6 PIND5 PIND4 PIND3 PIND2 PIND1 PIND0
 PIND gets updated with PORTD values every clock cyrcle. It is digitalRead() but for every pin on PORTD</t>
@@ -562,6 +640,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">	-	PORTC6 PORTC5 PORTC4 PORTC3 PORTC2 PORTC1 PORTC0
 By setting a bit of PORT to 1:
@@ -578,6 +657,7 @@
             <sz val="11"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter0 Output Compare Register B
 </t>
@@ -588,6 +668,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Its value gets continuously compared with TCNT0.
 If they match, OCF0B bit in TIFR0 is set
@@ -603,6 +684,7 @@
             <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Initial SP value.
 Is implemented as two 8-bit registers in the I/O space [SPH/SPL].
@@ -1158,12 +1240,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1181,29 +1264,34 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="24"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FFCC0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1211,6 +1299,36 @@
       <color rgb="FF808080"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -1218,44 +1336,21 @@
       <color rgb="FF0000EE"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFCC0000"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1263,6 +1358,7 @@
       <color rgb="FF00A933"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1270,6 +1366,7 @@
       <color rgb="FF55308D"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1277,16 +1374,30 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1295,6 +1406,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1308,30 +1420,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1349,6 +1437,30 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -1530,59 +1642,59 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1647,7 +1759,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1719,6 +1831,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="true"/>
+    </xf>
     <xf numFmtId="164" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1767,7 +1883,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1783,23 +1899,23 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Heading" xfId="20"/>
-    <cellStyle name="Heading 1" xfId="21"/>
-    <cellStyle name="Heading 2" xfId="22"/>
-    <cellStyle name="Text" xfId="23"/>
-    <cellStyle name="Note" xfId="24"/>
-    <cellStyle name="Footnote" xfId="25"/>
-    <cellStyle name="Hyperlink" xfId="26"/>
-    <cellStyle name="Status" xfId="27"/>
-    <cellStyle name="Good" xfId="28"/>
-    <cellStyle name="Neutral" xfId="29"/>
-    <cellStyle name="Bad" xfId="30"/>
-    <cellStyle name="Warning" xfId="31"/>
-    <cellStyle name="Error" xfId="32"/>
-    <cellStyle name="Accent" xfId="33"/>
-    <cellStyle name="Accent 1" xfId="34"/>
-    <cellStyle name="Accent 2" xfId="35"/>
-    <cellStyle name="Accent 3" xfId="36"/>
+    <cellStyle name="Accent 1 17" xfId="20"/>
+    <cellStyle name="Accent 16" xfId="21"/>
+    <cellStyle name="Accent 2 18" xfId="22"/>
+    <cellStyle name="Accent 3 19" xfId="23"/>
+    <cellStyle name="Bad 13" xfId="24"/>
+    <cellStyle name="Error 15" xfId="25"/>
+    <cellStyle name="Footnote 8" xfId="26"/>
+    <cellStyle name="Good 11" xfId="27"/>
+    <cellStyle name="Heading 1 4" xfId="28"/>
+    <cellStyle name="Heading 2 5" xfId="29"/>
+    <cellStyle name="Heading 3" xfId="30"/>
+    <cellStyle name="Hyperlink 9" xfId="31"/>
+    <cellStyle name="Neutral 12" xfId="32"/>
+    <cellStyle name="Note 7" xfId="33"/>
+    <cellStyle name="Status 10" xfId="34"/>
+    <cellStyle name="Text 6" xfId="35"/>
+    <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1875,7 +1991,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
@@ -1887,7 +2003,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17521920" y="195840"/>
-          <a:ext cx="1864440" cy="1179000"/>
+          <a:ext cx="1864080" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,9 +2084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:colOff>425520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1980,7 +2096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17144640" y="1220400"/>
-          <a:ext cx="341640" cy="1381320"/>
+          <a:ext cx="341280" cy="1380960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2046,7 +2162,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
@@ -2058,7 +2174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17528400" y="1893960"/>
-          <a:ext cx="1396800" cy="336600"/>
+          <a:ext cx="1396440" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2123,9 +2239,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>437040</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2135,7 +2251,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17156160" y="2609280"/>
-          <a:ext cx="341640" cy="3485160"/>
+          <a:ext cx="341280" cy="3484800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2201,7 +2317,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>388080</xdr:colOff>
+      <xdr:colOff>387720</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
@@ -2213,7 +2329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17540640" y="4196520"/>
-          <a:ext cx="1455480" cy="336600"/>
+          <a:ext cx="1455120" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2278,9 +2394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>449280</xdr:colOff>
+      <xdr:colOff>448920</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2290,7 +2406,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17168040" y="6102000"/>
-          <a:ext cx="341640" cy="2174040"/>
+          <a:ext cx="341280" cy="2173680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2356,7 +2472,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
+      <xdr:colOff>222480</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>95400</xdr:rowOff>
     </xdr:to>
@@ -2368,7 +2484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17588160" y="7322760"/>
-          <a:ext cx="2473200" cy="336600"/>
+          <a:ext cx="2472840" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2417,9 +2533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2433,7 +2549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5392440" cy="1121040"/>
+          <a:ext cx="5392080" cy="1120680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2454,9 +2570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>376200</xdr:colOff>
+      <xdr:colOff>375840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2470,7 +2586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19310400" y="1796400"/>
-          <a:ext cx="4578480" cy="3030840"/>
+          <a:ext cx="4578840" cy="3030480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2491,9 +2607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>419040</xdr:colOff>
+      <xdr:colOff>418680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2503,7 +2619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17137800" y="510840"/>
-          <a:ext cx="341640" cy="708120"/>
+          <a:ext cx="341280" cy="707760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2571,10 +2687,10 @@
   <dimension ref="A1:AI53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U21" activeCellId="0" sqref="U21"/>
+      <selection pane="topLeft" activeCell="S20" activeCellId="0" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="8.72"/>
@@ -3469,10 +3585,10 @@
       <c r="W16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="X16" s="33" t="s">
+      <c r="X16" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="Y16" s="33" t="s">
+      <c r="Y16" s="34" t="s">
         <v>122</v>
       </c>
       <c r="Z16" s="29" t="s">
@@ -3526,10 +3642,10 @@
       <c r="W17" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="X17" s="33" t="s">
+      <c r="X17" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="Y17" s="33" t="s">
+      <c r="Y17" s="34" t="s">
         <v>131</v>
       </c>
       <c r="Z17" s="29" t="s">
@@ -3622,14 +3738,14 @@
       <c r="Q19" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="R19" s="34"/>
+      <c r="R19" s="35"/>
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
       <c r="V19" s="33"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
-      <c r="Y19" s="35"/>
+      <c r="Y19" s="36"/>
       <c r="Z19" s="29" t="s">
         <v>137</v>
       </c>
@@ -3663,14 +3779,14 @@
       <c r="Q20" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="R20" s="34"/>
+      <c r="R20" s="35"/>
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
       <c r="V20" s="33"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
-      <c r="Y20" s="35"/>
+      <c r="Y20" s="36"/>
       <c r="Z20" s="29" t="s">
         <v>139</v>
       </c>
@@ -3704,14 +3820,14 @@
       <c r="Q21" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="R21" s="34"/>
+      <c r="R21" s="35"/>
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
       <c r="V21" s="33"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
-      <c r="Y21" s="35"/>
+      <c r="Y21" s="36"/>
       <c r="Z21" s="29" t="s">
         <v>141</v>
       </c>
@@ -3747,14 +3863,14 @@
       <c r="Q22" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R22" s="34"/>
+      <c r="R22" s="35"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
       <c r="V22" s="33"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
-      <c r="Y22" s="35"/>
+      <c r="Y22" s="36"/>
       <c r="Z22" s="29" t="s">
         <v>144</v>
       </c>
@@ -3788,14 +3904,14 @@
       <c r="Q23" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="R23" s="34"/>
+      <c r="R23" s="35"/>
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
       <c r="V23" s="33"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
-      <c r="Y23" s="35"/>
+      <c r="Y23" s="36"/>
       <c r="Z23" s="29" t="s">
         <v>146</v>
       </c>
@@ -3831,14 +3947,14 @@
       <c r="Q24" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="R24" s="34"/>
+      <c r="R24" s="35"/>
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
       <c r="V24" s="33"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
-      <c r="Y24" s="35"/>
+      <c r="Y24" s="36"/>
       <c r="Z24" s="29" t="s">
         <v>149</v>
       </c>
@@ -3872,14 +3988,14 @@
       <c r="Q25" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="R25" s="34"/>
+      <c r="R25" s="35"/>
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
       <c r="V25" s="33"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
-      <c r="Y25" s="35"/>
+      <c r="Y25" s="36"/>
       <c r="Z25" s="29" t="s">
         <v>151</v>
       </c>
@@ -3913,14 +4029,14 @@
       <c r="Q26" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="R26" s="34"/>
+      <c r="R26" s="35"/>
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
       <c r="V26" s="33"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
-      <c r="Y26" s="35"/>
+      <c r="Y26" s="36"/>
       <c r="Z26" s="29" t="s">
         <v>153</v>
       </c>
@@ -3954,14 +4070,14 @@
       <c r="Q27" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="R27" s="34"/>
+      <c r="R27" s="35"/>
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
       <c r="V27" s="33"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
-      <c r="Y27" s="35"/>
+      <c r="Y27" s="36"/>
       <c r="Z27" s="29" t="s">
         <v>155</v>
       </c>
@@ -3995,14 +4111,14 @@
       <c r="Q28" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="R28" s="34"/>
+      <c r="R28" s="35"/>
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
       <c r="V28" s="33"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
-      <c r="Y28" s="35"/>
+      <c r="Y28" s="36"/>
       <c r="Z28" s="29" t="s">
         <v>157</v>
       </c>
@@ -4036,14 +4152,14 @@
       <c r="Q29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="R29" s="34"/>
+      <c r="R29" s="35"/>
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
       <c r="V29" s="33"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
-      <c r="Y29" s="35"/>
+      <c r="Y29" s="36"/>
       <c r="Z29" s="29" t="s">
         <v>159</v>
       </c>
@@ -4079,14 +4195,14 @@
       <c r="Q30" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="R30" s="34"/>
+      <c r="R30" s="35"/>
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
       <c r="V30" s="33"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
-      <c r="Y30" s="35"/>
+      <c r="Y30" s="36"/>
       <c r="Z30" s="29" t="s">
         <v>162</v>
       </c>
@@ -4120,14 +4236,14 @@
       <c r="Q31" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="R31" s="34"/>
-      <c r="S31" s="36"/>
-      <c r="T31" s="36"/>
-      <c r="U31" s="36"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="37"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="37"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="37"/>
+      <c r="Y31" s="38"/>
       <c r="Z31" s="29" t="s">
         <v>164</v>
       </c>
@@ -4161,14 +4277,14 @@
       <c r="Q32" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="R32" s="34"/>
-      <c r="S32" s="36"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="37"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="37"/>
+      <c r="T32" s="37"/>
+      <c r="U32" s="37"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="37"/>
+      <c r="X32" s="37"/>
+      <c r="Y32" s="38"/>
       <c r="Z32" s="29" t="s">
         <v>166</v>
       </c>
@@ -4202,14 +4318,14 @@
       <c r="Q33" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="R33" s="34"/>
-      <c r="S33" s="36"/>
-      <c r="T33" s="36"/>
-      <c r="U33" s="36"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="36"/>
-      <c r="X33" s="36"/>
-      <c r="Y33" s="37"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="37"/>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37"/>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37"/>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="38"/>
       <c r="Z33" s="29" t="s">
         <v>168</v>
       </c>
@@ -4243,14 +4359,14 @@
       <c r="Q34" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="R34" s="34"/>
-      <c r="S34" s="36"/>
-      <c r="T34" s="36"/>
-      <c r="U34" s="36"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="36"/>
-      <c r="X34" s="36"/>
-      <c r="Y34" s="37"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="37"/>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37"/>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37"/>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="38"/>
       <c r="Z34" s="29" t="s">
         <v>170</v>
       </c>
@@ -4284,16 +4400,16 @@
       <c r="Q35" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="R35" s="38"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="U35" s="39"/>
-      <c r="V35" s="39"/>
-      <c r="W35" s="39"/>
-      <c r="X35" s="39" t="s">
+      <c r="R35" s="39"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+      <c r="W35" s="40"/>
+      <c r="X35" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="Y35" s="40" t="s">
+      <c r="Y35" s="41" t="s">
         <v>172</v>
       </c>
       <c r="Z35" s="29" t="s">
@@ -4311,122 +4427,122 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="41"/>
-      <c r="Z36" s="42"/>
+      <c r="Q36" s="42"/>
+      <c r="Z36" s="43"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="41"/>
-      <c r="Z37" s="42"/>
+      <c r="Q37" s="42"/>
+      <c r="Z37" s="43"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="41"/>
-      <c r="Z38" s="42"/>
+      <c r="Q38" s="42"/>
+      <c r="Z38" s="43"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="41"/>
-      <c r="Z39" s="42"/>
+      <c r="Q39" s="42"/>
+      <c r="Z39" s="43"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="41"/>
-      <c r="Z40" s="42"/>
+      <c r="Q40" s="42"/>
+      <c r="Z40" s="43"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="41"/>
-      <c r="Z41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="Z41" s="43"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="41"/>
-      <c r="Z42" s="42"/>
+      <c r="Q42" s="42"/>
+      <c r="Z42" s="43"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="41"/>
-      <c r="Z43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="Z43" s="43"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="41"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="44" t="s">
+      <c r="Q44" s="42"/>
+      <c r="R44" s="44"/>
+      <c r="S44" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="45"/>
+      <c r="V44" s="45"/>
+      <c r="W44" s="45"/>
+      <c r="X44" s="45"/>
+      <c r="Y44" s="45"/>
+      <c r="Z44" s="45"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="41"/>
-      <c r="R45" s="45"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="46"/>
       <c r="S45" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="Z45" s="42"/>
+      <c r="Z45" s="43"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="41"/>
-      <c r="R46" s="46"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="47"/>
       <c r="S46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="Z46" s="42"/>
+      <c r="Z46" s="43"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="47"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="48"/>
       <c r="S47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="Z47" s="42"/>
+      <c r="Z47" s="43"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="41"/>
-      <c r="Z48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="Z48" s="43"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="41"/>
-      <c r="Z49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="Z49" s="43"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="41"/>
-      <c r="Z50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="Z50" s="43"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="41"/>
-      <c r="Z51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="Z51" s="43"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="41"/>
-      <c r="Z52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="Z52" s="43"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="41"/>
-      <c r="Z53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="Z53" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4459,7 +4575,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.48046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.48828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -68,9 +68,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Interrupt Flag Register
+          <t xml:space="preserve">Timer Interrupt Flag Register 2
 –	–	–	–	–	OCF2B OCF2A TOV2
-7	6	5	4	3	      2           1        0</t>
+7	6	5	4	3	      2           1        0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Output Compare Flags:
+OCF2B	Sets when TimerCounter2 == OCR2B
+	Executes TimerCounter2 Compare Match B Interrupt
+		TIMER2_COMPB_vect
+OCF2A	Sets when TimerCounter2 ==OCR2A
+	Executes TimerCounter2 Compare Match A Interrupt
+		TIMER2_COMPA_vect
+Timer Overflow flag
+TOV2  	Sets when TimerCounter2 overflows 
+	Executes TimerCounter2 Overflow Interrupt
+		TIMER2_OVF_vect</t>
         </r>
       </text>
     </comment>
@@ -124,39 +144,32 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter1 Interrupt Mask Register
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Enable Specific Interrupt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 –	–	ICIE1	–	–	OCIE1B OCIE1A TOIE1
 7	6	    5          4      3            2           1           0
-[5] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ICIE1: If set, Enables TimerCounter1 Input Capture interrupt.
+[5] ICIE1: If set, Enables TimerCounter1 Input Capture interrupt.
 		Executes, if the [5]ICF1 located in TIFR1, sets
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[2] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OCIE1B: If set, enables TimerCounter1 Output Compare B Match interrupt
+[2] OCIE1B: If set, enables TimerCounter1 Output Compare B Match interrupt
 		Executes when [2]OCF1B in TIFR1 in is set
 [1] OCIE1A: If set, enables TimerCounter1 Output Compare A Match interrupt
 		Executes when [1]OCF1A in TIFR1 in is set
@@ -183,6 +196,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="R20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Input Capture Register High Byte
+The Input Capture is updated with the counter (TCNT1) value each time an event occurs on the
+ICP1 pin (or optionally on the Analog Comparator output for Timer/Counter1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="R45" authorId="0">
       <text>
         <r>
@@ -236,9 +265,50 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Interrupt Flag Register
+          <t xml:space="preserve">Timer Interrupt Flag Register 1
 –	–	ICF1		–	–	OCF1B OCF1A TOV1
-7	6	   5		4	3	     2           1          0</t>
+7	6	   5		4	3	     2           1          0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">ICF1 : Timer/Counter1, Input Capture Flag
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Output Compare Flags:
+OCF1B	Sets when TimerCounter1 == OCR1B
+	Executes TimerCounter1 Compare Match B Interrupt
+		TIMER1_COMPB_vect
+OCF1A	Sets when TimerCounter1 ==OCR1A
+	Executes TimerCounter1 Compare Match A Interrupt
+		TIMER1_COMPA_vect
+Timer Overflow flag
+TOV1  	Sets when TimerCounter1 overflows 
+	Executes TimerCounter1 Overflow Interrupt
+		TIMER1_OVF_vect</t>
         </r>
       </text>
     </comment>
@@ -266,9 +336,9 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Enable Specific Interrupt
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Interrupt Mask Register
+Enable Specific Interrupt
 </t>
         </r>
         <r>
@@ -278,7 +348,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Interrupt Mask Register
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -290,59 +360,12 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[7] – [6] – [5] – [4] – [3] –
-[2] OCIE0B: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> If set, enables </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Timer/Counter0 Compare Match B interrupt
-	Executes when [2]OCF0B in TIFRO in is set
-[1] OCIE0A: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If set, enables Timer/Counter0 Compare Match A interrupt
-	Executes when [1]OCF0A in TIFRO in is set
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[0] TOIE0: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If set, enables Timer/Counter0 Overflow interrupt
-	Executes when [0]TOV0 in TIFRO in is set</t>
+[2] OCIE0B:  If set, enables Timer/Counter0 Compare Match B interrupt
+	Executes when [2]OCF0B in TIFR0 in is set
+[1] OCIE0A: If set, enables Timer/Counter0 Compare Match A interrupt
+	Executes when [1]OCF0A in TIFR0 in is set
+[0] TOIE0: If set, enables Timer/Counter0 Overflow interrupt
+	Executes when [0]TOV0 in TIFR0 in is set</t>
         </r>
       </text>
     </comment>
@@ -365,6 +388,22 @@
         </r>
       </text>
     </comment>
+    <comment ref="S20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Input Capture Register Low Byte
+The Input Capture is updated with the counter (TCNT1) value each time an event occurs on the
+ICP1 pin (or optionally on the Analog Comparator output for Timer/Counter1)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="T7" authorId="0">
       <text>
         <r>
@@ -407,17 +446,20 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Timer Interrupt Flag Register
+          <t xml:space="preserve">Timer Interrupt Flag Register 0
 –	–	–	–	–	OCF0B OCF0A TOV0
 7	6	5	4	3	     2           1         0
 Output Compare Flags:
 OCF0B	Sets when TimerCounter0 == OCR0B
-	Executes TimerCounter0 Compare Match Interrupt
+	Executes TimerCounter0 Compare Match B Interrupt
+		TIMER0_COMPB_vect
 OCF0A	Sets when TimerCounter0 ==OCR0A
-	Executes TimerCounter0 Compare Match Interrupt
+	Executes TimerCounter0 Compare Match A Interrupt
+		TIMER0_COMPA_vect
 Timer Overflow flag
 TOV0  	Sets when TimerCounter0 overflows 
-	Executes TimerCounter0 Overflow Interrupt</t>
+	Executes TimerCounter0 Overflow Interrupt
+		TIMER0_OVF_vect</t>
         </r>
       </text>
     </comment>
@@ -454,11 +496,150 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Force Output Compare A/B bits.
+Force Output Compare A
 Only active when WGM Bits are non-PWM mode.
-If Set, Compare Match is forced on Waveform Generation unit.
 [7] FOC0A 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">COM0A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 [6] FOC0B 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">COM0B1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
 [5] –	
 [4] –	
 </t>
@@ -494,7 +675,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Waveform Generation Mode ana Interrupt Modes
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
 </t>
         </r>
         <r>
@@ -506,7 +687,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[3] WGM02
-Clock Select: Control </t>
+Ser </t>
         </r>
         <r>
           <rPr>
@@ -517,7 +698,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Prescaler
+          <t xml:space="preserve">Prescaler, Timer/Counter0
 </t>
         </r>
         <r>
@@ -530,8 +711,31 @@
           </rPr>
           <t xml:space="preserve">[2] CS02
 [1] CS01 
-[0] CS00
+[0] CS00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Counter Register High Byte
 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with TCNT1L, they make “TCNT1”</t>
         </r>
       </text>
     </comment>
@@ -602,11 +806,53 @@
           </rPr>
           <t xml:space="preserve">
 Compare Match Output A Mode
-Control the OC0A (Pin 6, PWM) output behavior.
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM) output behavior.
 [7] COM0A1 
 [6] COM0A0 
 Compare Match Output B Mode
-Control the OC0B (Pin 5, PWM) output behavior.
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM) output behavior.
 [5] COM0B1 
 [4] COM0B0	
 [3] –	
@@ -680,421 +926,37 @@
     1 		0 	Reserved
     1 		1 	Internal 1.1V Voltage Reference with external capacitor at AREF pin
 ------------------------------------------
-[5] ADLAR: 	</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ADLAR =0 [Right-adjusted values, 8-bit precision]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">			</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ADLAR =1 [Left-adjusted values, 10-bit precision]
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[4] – 
+[5] ADLAR: 	ADLAR =0 [Right-adjusted values, 8-bit precision]
+			ADLAR =1 [Left-adjusted values, 10-bit precision]
+[4] – 
 Select which ADC pin will be used:
 [3] MUX3 [2] MUX2 [1] MUX1 [0] MUX0
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> MUX3  MUX2  MUX1 MUX0
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">     0           0           0          0 		ADC0
+ MUX3  MUX2  MUX1 MUX0
+     0           0           0          0 		ADC0
      0           0           0          1 		ADC1
      0           0           1          0		ADC2
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 		ADC3
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 		ADC4
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1		ADC5
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 		ADC6
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 		ADC7
-     1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 		ADC8
+     0           0           1          1 		ADC3
+     0           1           0          0 		ADC4
+     0           1           0          1		ADC5
+     0           1           1          0 		ADC6
+     0           1           1          1 		ADC7
+     1           0           0          0 		ADC8
 Note: If you’re using an external reference on the AREF pin, you must set the analog reference to EXTERNAL before calling analogRead()</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Counter Register Low Byte
+Combined with TCNT1H, they make “TCNT1”</t>
         </r>
       </text>
     </comment>
@@ -1201,319 +1063,29 @@
 [1] ADTS1 
 [0] ADTS0
 If ADATE in ADCSRA is written to one, the value of these bits selects which source will trigger an ADC conversion. If ADATE is cleared, the ADTS2:0 settings will have no effect. A conversion will be triggered by the rising edge of the selected Interrupt Flag
-ADTS2 ADTS1 ADTS0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Trigger Source
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">     0          0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0		Free Running mode
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1	 	Analog Comparator
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0		External Interrupt Request 0
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1 		Timer/Counter0 Compare Match A
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 		Timer/Counter0 Overflow
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 		Timer/Counter1 Compare Match B
-     1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 		Timer/Counter1 Overflow
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">         </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1 		Timer/Counter1 Capture Event</t>
+ADTS2 ADTS1 ADTS0 Trigger Source
+     0          0          0		Free Running mode
+     0          0          1	 	Analog Comparator
+     0          1          0		External Interrupt Request 0
+     0          1          1 		Timer/Counter0 Compare Match A
+     1          0          0 		Timer/Counter0 Overflow
+     1          0          1 		Timer/Counter1 Compare Match B
+     1          1          0 		Timer/Counter1 Overflow
+     1          1          1 		Timer/Counter1 Capture Event</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Output Compare Register B High Byte</t>
         </r>
       </text>
     </comment>
@@ -1593,28 +1165,8 @@
           </rPr>
           <t xml:space="preserve">
 [4] ADIF :ADC Interrupt Flag.
-	</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Sets when ADC conversion completes
+	Sets when ADC conversion completes
 	Executes ISR(ADC_vect)
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
 ADC Interrupt Enable
 [3] ADIE: If Set, ADC Conversion Complete Interrupt is activated
 ADC Prescaler Select Bits
@@ -1622,414 +1174,77 @@
 [1] ADPS1 
 [0] ADPS0
 ADPS2 ADPS1 ADPS0 Division Factor
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0           0                 2
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">           </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">                </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">2
-     0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">                </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">4
-     0</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">                </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 8
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">               </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">16
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">      32
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> 0 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">               </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">64
-     1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1 </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">          </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">1               128
+     0           0           0                 2
+     0           0           1                 2
+     0           1           0                 4
+     0           1           1                 8
+     1           0           0                16
+     1           0           1                32
+     1           1           0                64
+     1           1           1               128
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register C
+Force Output Compare for Channel A/B
+[7] FOC1A
+[6] FOC1B
+	These bits are only active when the WGM13:10 bits (in TCCR1B and TCCR1A) specifies a non-PWM mode.
+	If FOC1A/FOC1B are set, an immediate compare match is forced on the Waveform Generation unit. The OC1A/OC1B output is changed according to its COM1x1:0 bits in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR1A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+----------------------------------------
+[5] –	
+[4] –	
+[3] –	
+[2] –
+[1] –	
+[0] –</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Output Compare Register B Low Byte</t>
         </r>
       </text>
     </comment>
@@ -2059,16 +1274,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">ADC Data Register High byte
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">[5]ADLAR is in ADMUX
+[5]ADLAR is in ADMUX
 With ADLAR =0 [Right-adjusted values, 8-bit precision]:
     -		-	 -	    -	       -	 -      ADC9 ADC8	|ADCH
 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2 ADC1 ADC0	|ADCL
@@ -2078,6 +1284,329 @@
         </r>
       </text>
     </comment>
+    <comment ref="X20" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 136]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[7] ICNC1 : Input Capture Noise Canceler
+[6] ICES1	 : Input Capture Edge Select
+[5] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM11 and WGM10, found in TCCR1B, control the Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[4] WGM13 
+[3] WGM12 
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Preslacer, Timer/Counter1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS12 
+[1] CS11 
+[0] CS10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Output Compare Register A High Byte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A
+is only active when the WGM bits specify a non-PWM mode
+[7] FOC2A 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[6] FOC2B 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] -
+[4] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM21, WGM20, found in TCCR2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, these control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM22
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler, Timer/Counter2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS22
+[1] CS21
+[0] CS20</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="Y9" authorId="0">
       <text>
         <r>
@@ -2132,60 +1661,35 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter2 Interrupt Mask Register
+Enable Specific Interrupt
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">–	–	–	–	–	OCIE2B OCIE2A TOIE2
 7	6	5	4	3	      2	    1		0
-[2] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OCIE2B: If set, enables Timer/Counter2 Compare Match B interrupt
+[2] OCIE2B: If set, enables Timer/Counter2 Compare Match B interrupt
 	Executes when [2]OCF2B in TIFR2 in is set
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[1] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">OCIE2A: If set, enables Timer/Counter2 Compare Match A interrupt
+[1] OCIE2A: If set, enables Timer/Counter2 Compare Match A interrupt
 	Executes when [1]OCF2A in TIFR2 in is set
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[0] </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">TOIE2: If set, enables Timer/Counter2 Overflow interrupt
+[0] TOIE2: If set, enables Timer/Counter2 Overflow interrupt
 	Executes when [0]TOV2 in TIFR2 in is set</t>
         </r>
       </text>
@@ -2206,16 +1710,7 @@
     -		-	 -	    -	       -	 -      ADC9 ADC8	|ADCH
 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2 ADC1 ADC0	|ADCL
 With ADLAR =1 [Left-adjusted values, 10-bit precision]:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ADC9 ADC8 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2	|ADCH
+ADC9 ADC8 ADC7 ADC6 ADC5 ADC4 ADC3 ADC2	|ADCH
 ADC1 ADC0     -	   -	       -         -         -          -		|ADCL</t>
         </r>
       </text>
@@ -2253,22 +1748,55 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Compare Match Output Mode for Channel A
+Compare Match Output Mode for Channel A
 [7] COM1A1 
 [6] COM1A0 
 Compare Match Output Mode for Channel B
 [5] COM0B1 
 [4] COM0B0	
-Control the OC1A (Pin 9, PWM) and OC1B (Pin 10, PWM) output behavior.
+Controls the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 9, PWM) and </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 10, PWM) output behavior.
 [3] –	
 [2] –	
 </t>
@@ -2280,6 +1808,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM13 and WGM12, found in TCCR1B</t>
         </r>
@@ -2289,6 +1818,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">, these control the 
 </t>
@@ -2300,6 +1830,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
 </t>
@@ -2310,9 +1841,189 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[1] WGM11 
 [0] WGM10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y21" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 - Output Compare Register A Low Byte</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM) output behavior.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[7] COM2A1 
+[6] COM2A0 
+Compare Match Output B Mode
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM) output behavior.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[5] COM2B1 
+[4] COM2B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM21 
+[0] WGM20</t>
         </r>
       </text>
     </comment>
@@ -2337,7 +2048,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="237">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -2402,6 +2113,15 @@
     <t xml:space="preserve">x8H</t>
   </si>
   <si>
+    <t xml:space="preserve">Prescaler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC0B</t>
+  </si>
+  <si>
     <t xml:space="preserve">07H</t>
   </si>
   <si>
@@ -2435,6 +2155,18 @@
     <t xml:space="preserve">SPM instruction</t>
   </si>
   <si>
+    <t xml:space="preserve">Int. Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noise Canceler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC0A</t>
+  </si>
+  <si>
     <t xml:space="preserve">0FH</t>
   </si>
   <si>
@@ -2465,6 +2197,18 @@
     <t xml:space="preserve">08H</t>
   </si>
   <si>
+    <t xml:space="preserve">PWM[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR0B</t>
+  </si>
+  <si>
     <t xml:space="preserve">17H</t>
   </si>
   <si>
@@ -2525,6 +2269,27 @@
     <t xml:space="preserve">18H</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">overfl.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">27H</t>
   </si>
   <si>
@@ -2549,6 +2314,51 @@
     <t xml:space="preserve">20H</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">overfl.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1A[16bit]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">T0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">overfl.</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">2FH</t>
   </si>
   <si>
@@ -2567,6 +2377,15 @@
     <t xml:space="preserve">28H</t>
   </si>
   <si>
+    <t xml:space="preserve">OCR2A[16bit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1B[16bit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR0A</t>
+  </si>
+  <si>
     <t xml:space="preserve">37H</t>
   </si>
   <si>
@@ -2582,6 +2401,15 @@
     <t xml:space="preserve">30H</t>
   </si>
   <si>
+    <t xml:space="preserve">OCR2B[16bit]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input Cap Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR0B</t>
+  </si>
+  <si>
     <t xml:space="preserve">3FH</t>
   </si>
   <si>
@@ -2603,18 +2431,15 @@
     <t xml:space="preserve">38H</t>
   </si>
   <si>
+    <t xml:space="preserve">Int. Flag</t>
+  </si>
+  <si>
     <t xml:space="preserve">47H</t>
   </si>
   <si>
-    <t xml:space="preserve">OCR0A</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCNT0</t>
   </si>
   <si>
-    <t xml:space="preserve">TCCR0B</t>
-  </si>
-  <si>
     <t xml:space="preserve">TCCR0A</t>
   </si>
   <si>
@@ -2651,12 +2476,15 @@
     <t xml:space="preserve">GPIOR1</t>
   </si>
   <si>
-    <t xml:space="preserve">OCR0B</t>
-  </si>
-  <si>
     <t xml:space="preserve">48H</t>
   </si>
   <si>
+    <t xml:space="preserve">PWM Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC1B</t>
+  </si>
+  <si>
     <t xml:space="preserve">57H</t>
   </si>
   <si>
@@ -2678,6 +2506,12 @@
     <t xml:space="preserve">50H</t>
   </si>
   <si>
+    <t xml:space="preserve">OC pins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OC1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">5FH</t>
   </si>
   <si>
@@ -2693,6 +2527,12 @@
     <t xml:space="preserve">58H</t>
   </si>
   <si>
+    <t xml:space="preserve">TCCR2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR1A</t>
+  </si>
+  <si>
     <t xml:space="preserve">67H</t>
   </si>
   <si>
@@ -2777,7 +2617,19 @@
     <t xml:space="preserve">87H</t>
   </si>
   <si>
-    <t xml:space="preserve">TCCR1A</t>
+    <t xml:space="preserve">ICR1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCNT1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCNT1L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR1C</t>
   </si>
   <si>
     <t xml:space="preserve">80H</t>
@@ -2786,12 +2638,27 @@
     <t xml:space="preserve">8FH</t>
   </si>
   <si>
+    <t xml:space="preserve">OCR1BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1AH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1AL</t>
+  </si>
+  <si>
     <t xml:space="preserve">88H</t>
   </si>
   <si>
     <t xml:space="preserve">Boot Program section</t>
   </si>
   <si>
+    <t xml:space="preserve">Int. Enable</t>
+  </si>
+  <si>
     <t xml:space="preserve">97H</t>
   </si>
   <si>
@@ -2822,16 +2689,64 @@
     <t xml:space="preserve">B7H</t>
   </si>
   <si>
+    <t xml:space="preserve">ASSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR2B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCNT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">B0H</t>
   </si>
   <si>
     <t xml:space="preserve">BFH</t>
   </si>
   <si>
+    <t xml:space="preserve">TWAMR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TWBR</t>
+  </si>
+  <si>
     <t xml:space="preserve">B8H</t>
   </si>
   <si>
     <t xml:space="preserve">C7H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDR0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBRR0H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UBRR0L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSR0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSR0B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCSR0A</t>
   </si>
   <si>
     <t xml:space="preserve">C0H</t>
@@ -2907,7 +2822,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3020,6 +2935,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3052,6 +2980,7 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -3070,12 +2999,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3104,7 +3027,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3120,7 +3043,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFBF819E"/>
       </patternFill>
     </fill>
     <fill>
@@ -3138,7 +3061,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
+        <bgColor rgb="FFBF0041"/>
       </patternFill>
     </fill>
     <fill>
@@ -3151,6 +3074,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -3168,13 +3097,37 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
+        <bgColor rgb="FF660066"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3465A4"/>
+        <bgColor rgb="FF2A6099"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF472702"/>
+        <bgColor rgb="FF333333"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -3185,12 +3138,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFBF0041"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A6099"/>
+        <bgColor rgb="FF3465A4"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3249,6 +3214,13 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top/>
@@ -3278,23 +3250,9 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -3402,7 +3360,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3463,7 +3421,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3471,27 +3437,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3499,35 +3461,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="11" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3539,79 +3505,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="true"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3619,7 +3597,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3657,13 +3635,13 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF996600"/>
@@ -3671,7 +3649,7 @@
       <rgbColor rgb="FF158466"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -3683,7 +3661,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FFBF0041"/>
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
@@ -3695,18 +3673,18 @@
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF2A6099"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF3465A4"/>
+      <rgbColor rgb="FFBF819E"/>
+      <rgbColor rgb="FF404040"/>
       <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF404040"/>
+      <rgbColor rgb="FF472702"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF55308D"/>
@@ -3720,16 +3698,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>461520</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>488520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>363240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3738,8 +3716,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17521920" y="195840"/>
-          <a:ext cx="1863720" cy="1179000"/>
+          <a:off x="18437400" y="254160"/>
+          <a:ext cx="1863360" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3814,15 +3792,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>84240</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:colOff>459720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>425160</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3831,8 +3809,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17144640" y="1220400"/>
-          <a:ext cx="340920" cy="1380600"/>
+          <a:off x="17727120" y="1233360"/>
+          <a:ext cx="340560" cy="1380240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3891,14 +3869,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>468000</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>392760</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>415080</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
@@ -3909,8 +3887,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17528400" y="1893960"/>
-          <a:ext cx="1396080" cy="336600"/>
+          <a:off x="18341640" y="1893960"/>
+          <a:ext cx="1395720" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3969,15 +3947,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>117720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3986,8 +3964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17156160" y="2609280"/>
-          <a:ext cx="340920" cy="3484440"/>
+          <a:off x="17726040" y="2622240"/>
+          <a:ext cx="340560" cy="3484080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4046,16 +4024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>480240</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>232200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>387360</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>313200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4064,8 +4042,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17540640" y="4196520"/>
-          <a:ext cx="1454760" cy="336600"/>
+          <a:off x="18181080" y="4222800"/>
+          <a:ext cx="1454400" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4124,15 +4102,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>438120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>448560</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>97200</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>10440</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4141,8 +4119,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17168040" y="6102000"/>
-          <a:ext cx="340920" cy="2173320"/>
+          <a:off x="17705520" y="6127920"/>
+          <a:ext cx="340560" cy="2172960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4201,16 +4179,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>527760</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4219,8 +4197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17588160" y="7322760"/>
-          <a:ext cx="2472480" cy="336600"/>
+          <a:off x="19368000" y="7232040"/>
+          <a:ext cx="2472120" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4263,15 +4241,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>159840</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>181800</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>589680</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4285,7 +4263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5391720" cy="1120320"/>
+          <a:ext cx="5391360" cy="1119960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4299,16 +4277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>512640</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>375480</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4321,8 +4299,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19310400" y="1796400"/>
-          <a:ext cx="4578840" cy="3030120"/>
+          <a:off x="20450160" y="1835280"/>
+          <a:ext cx="4578120" cy="3029760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4337,15 +4315,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>418320</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>111960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4354,8 +4332,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17137800" y="510840"/>
-          <a:ext cx="340920" cy="707400"/>
+          <a:off x="17720280" y="517320"/>
+          <a:ext cx="340560" cy="707040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4422,25 +4400,30 @@
   </sheetPr>
   <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB18" activeCellId="0" sqref="AB18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB19" activeCellId="0" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="10" style="1" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="9.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="8.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="29" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.48"/>
   </cols>
@@ -4500,10 +4483,10 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -4555,10 +4538,10 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
+      <c r="M3" s="0"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -4608,42 +4591,48 @@
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="0"/>
+      <c r="P4" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="Q4" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="V4" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="14"/>
       <c r="AB4" s="8"/>
@@ -4658,7 +4647,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -4667,42 +4656,50 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+      <c r="L5" s="0"/>
+      <c r="M5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>38</v>
+      </c>
       <c r="Q5" s="11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="S5" s="8" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="W5" s="8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="Y5" s="8" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Z5" s="11" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="14"/>
       <c r="AB5" s="8"/>
@@ -4724,42 +4721,50 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="Q6" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="Z6" s="11" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="AA6" s="14"/>
       <c r="AB6" s="8"/>
@@ -4781,42 +4786,42 @@
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="O7" s="0"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="V7" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="W7" s="17" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="Z7" s="11" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="AA7" s="14"/>
       <c r="AB7" s="8"/>
@@ -4827,7 +4832,7 @@
       <c r="AG7" s="8"/>
       <c r="AH7" s="8"/>
       <c r="AI7" s="8"/>
-      <c r="AO7" s="18"/>
+      <c r="AO7" s="20"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
@@ -4839,42 +4844,44 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="0"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="P8" s="8"/>
       <c r="Q8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="R8" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="W8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="X8" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z8" s="24" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="S8" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="T8" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="U8" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="V8" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="W8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="AA8" s="14"/>
       <c r="AB8" s="8"/>
@@ -4896,42 +4903,48 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
       <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="Q9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="U9" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="X9" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y9" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="24" t="s">
-        <v>75</v>
+        <v>85</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="S9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="W9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="X9" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y9" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" s="26" t="s">
+        <v>90</v>
       </c>
       <c r="AA9" s="14"/>
       <c r="AB9" s="8"/>
@@ -4953,42 +4966,48 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="10"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
       <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
+      <c r="N10" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="Q10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="T10" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="U10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="V10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="X10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y10" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z10" s="31" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="U10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="AA10" s="14"/>
       <c r="AB10" s="8"/>
@@ -5010,42 +5029,48 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="N11" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="Q11" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="R11" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="S11" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="T11" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="U11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="V11" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="W11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="X11" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z11" s="31" t="s">
-        <v>87</v>
+        <v>102</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="W11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X11" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y11" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z11" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="AA11" s="14"/>
       <c r="AB11" s="8"/>
@@ -5067,42 +5092,50 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
+      <c r="L12" s="0"/>
+      <c r="M12" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="Q12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="T12" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="V12" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="R12" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="W12" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="X12" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y12" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z12" s="31" t="s">
-        <v>97</v>
+      <c r="S12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="X12" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z12" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="AA12" s="14"/>
       <c r="AB12" s="8"/>
@@ -5112,7 +5145,7 @@
       <c r="AF12" s="8"/>
       <c r="AG12" s="8"/>
       <c r="AH12" s="8"/>
-      <c r="AI12" s="34"/>
+      <c r="AI12" s="39"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
@@ -5124,42 +5157,42 @@
       <c r="G13" s="8"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="R13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="T13" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="R13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S13" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="T13" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="V13" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="W13" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y13" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="V13" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="W13" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="X13" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z13" s="31" t="s">
-        <v>105</v>
+      <c r="Z13" s="33" t="s">
+        <v>124</v>
       </c>
       <c r="AA13" s="14"/>
       <c r="AB13" s="8"/>
@@ -5169,7 +5202,7 @@
       <c r="AF13" s="8"/>
       <c r="AG13" s="8"/>
       <c r="AH13" s="8"/>
-      <c r="AI13" s="34"/>
+      <c r="AI13" s="39"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
@@ -5181,42 +5214,50 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="Q14" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="R14" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="T14" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="U14" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="V14" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="W14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="X14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y14" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="Z14" s="31" t="s">
-        <v>112</v>
+        <v>127</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="S14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="V14" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="W14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z14" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="AA14" s="14"/>
       <c r="AB14" s="8"/>
@@ -5238,42 +5279,50 @@
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="Q15" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="R15" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="S15" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="T15" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="U15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="V15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="W15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="X15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z15" s="31" t="s">
-        <v>117</v>
+        <v>136</v>
+      </c>
+      <c r="R15" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="S15" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="T15" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="U15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y15" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="33" t="s">
+        <v>140</v>
       </c>
       <c r="AA15" s="14"/>
       <c r="AB15" s="8"/>
@@ -5295,42 +5344,50 @@
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="P16" s="38" t="s">
+        <v>112</v>
+      </c>
       <c r="Q16" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="R16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="S16" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="T16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="U16" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="V16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="W16" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="X16" s="36" t="s">
-        <v>121</v>
-      </c>
-      <c r="Y16" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z16" s="31" t="s">
-        <v>123</v>
+        <v>143</v>
+      </c>
+      <c r="R16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S16" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="T16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W16" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y16" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z16" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="AA16" s="14"/>
       <c r="AB16" s="8"/>
@@ -5340,7 +5397,7 @@
       <c r="AF16" s="8"/>
       <c r="AG16" s="8"/>
       <c r="AH16" s="8"/>
-      <c r="AI16" s="34"/>
+      <c r="AI16" s="39"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
@@ -5352,42 +5409,42 @@
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
       <c r="Q17" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="S17" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="U17" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="V17" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="W17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="X17" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y17" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z17" s="31" t="s">
-        <v>132</v>
+        <v>149</v>
+      </c>
+      <c r="R17" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="S17" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="T17" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="V17" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="W17" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y17" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z17" s="33" t="s">
+        <v>157</v>
       </c>
       <c r="AA17" s="14"/>
       <c r="AB17" s="8"/>
@@ -5397,7 +5454,7 @@
       <c r="AF17" s="8"/>
       <c r="AG17" s="8"/>
       <c r="AH17" s="8"/>
-      <c r="AI17" s="34"/>
+      <c r="AI17" s="39"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
@@ -5409,42 +5466,42 @@
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
       <c r="Q18" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="R18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="S18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="T18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="U18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="V18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="W18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="X18" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y18" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z18" s="31" t="s">
-        <v>135</v>
+        <v>158</v>
+      </c>
+      <c r="R18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X18" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y18" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="Z18" s="33" t="s">
+        <v>160</v>
       </c>
       <c r="AA18" s="14"/>
       <c r="AB18" s="8"/>
@@ -5454,7 +5511,7 @@
       <c r="AF18" s="8"/>
       <c r="AG18" s="8"/>
       <c r="AH18" s="8"/>
-      <c r="AI18" s="34"/>
+      <c r="AI18" s="39"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
@@ -5466,42 +5523,48 @@
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="Q19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="R19" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="S19" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="U19" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="V19" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="W19" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="X19" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y19" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z19" s="31" t="s">
-        <v>144</v>
+        <v>161</v>
+      </c>
+      <c r="R19" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="S19" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="T19" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U19" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="V19" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="W19" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="X19" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y19" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z19" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="AA19" s="14"/>
       <c r="AB19" s="8"/>
@@ -5511,7 +5574,7 @@
       <c r="AF19" s="8"/>
       <c r="AG19" s="8"/>
       <c r="AH19" s="8"/>
-      <c r="AI19" s="34"/>
+      <c r="AI19" s="39"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -5523,28 +5586,48 @@
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
       <c r="I20" s="10"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
       <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
+      <c r="N20" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="Q20" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="R20" s="41"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="Z20" s="31" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="R20" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="S20" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="T20" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="V20" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y20" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z20" s="33" t="s">
+        <v>176</v>
       </c>
       <c r="AA20" s="14"/>
       <c r="AB20" s="8"/>
@@ -5554,7 +5637,7 @@
       <c r="AF20" s="8"/>
       <c r="AG20" s="8"/>
       <c r="AH20" s="8"/>
-      <c r="AI20" s="34"/>
+      <c r="AI20" s="39"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
@@ -5566,26 +5649,48 @@
       <c r="G21" s="8"/>
       <c r="H21" s="9"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
       <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
+      <c r="N21" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="O21" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="Q21" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="R21" s="41"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="42"/>
-      <c r="Z21" s="31" t="s">
-        <v>149</v>
+        <v>177</v>
+      </c>
+      <c r="R21" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S21" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V21" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="W21" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="X21" s="49" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y21" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="Z21" s="33" t="s">
+        <v>182</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="8"/>
@@ -5595,11 +5700,11 @@
       <c r="AF21" s="8"/>
       <c r="AG21" s="8"/>
       <c r="AH21" s="8"/>
-      <c r="AI21" s="34"/>
+      <c r="AI21" s="39"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -5609,26 +5714,50 @@
       <c r="G22" s="8"/>
       <c r="H22" s="9"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="P22" s="42" t="s">
+        <v>151</v>
+      </c>
       <c r="Q22" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="R22" s="41"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="42"/>
-      <c r="Z22" s="31" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="R22" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="S22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z22" s="33" t="s">
+        <v>186</v>
       </c>
       <c r="AA22" s="14"/>
       <c r="AB22" s="8"/>
@@ -5638,7 +5767,7 @@
       <c r="AF22" s="8"/>
       <c r="AG22" s="8"/>
       <c r="AH22" s="8"/>
-      <c r="AI22" s="34"/>
+      <c r="AI22" s="39"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
@@ -5658,18 +5787,34 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="R23" s="41"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="31" t="s">
-        <v>154</v>
+        <v>187</v>
+      </c>
+      <c r="R23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y23" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z23" s="33" t="s">
+        <v>188</v>
       </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="8"/>
@@ -5679,7 +5824,7 @@
       <c r="AF23" s="8"/>
       <c r="AG23" s="8"/>
       <c r="AH23" s="8"/>
-      <c r="AI23" s="34"/>
+      <c r="AI23" s="39"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
@@ -5690,7 +5835,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9" t="s">
-        <v>155</v>
+        <v>189</v>
       </c>
       <c r="I24" s="10"/>
       <c r="J24" s="8"/>
@@ -5701,18 +5846,34 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="R24" s="41"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="31" t="s">
-        <v>157</v>
+        <v>190</v>
+      </c>
+      <c r="R24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y24" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z24" s="33" t="s">
+        <v>191</v>
       </c>
       <c r="AA24" s="14"/>
       <c r="AB24" s="8"/>
@@ -5722,7 +5883,7 @@
       <c r="AF24" s="8"/>
       <c r="AG24" s="8"/>
       <c r="AH24" s="8"/>
-      <c r="AI24" s="34"/>
+      <c r="AI24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
@@ -5742,18 +5903,34 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="R25" s="41"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="31" t="s">
-        <v>159</v>
+        <v>192</v>
+      </c>
+      <c r="R25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y25" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z25" s="33" t="s">
+        <v>193</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="8"/>
@@ -5763,7 +5940,7 @@
       <c r="AF25" s="8"/>
       <c r="AG25" s="8"/>
       <c r="AH25" s="8"/>
-      <c r="AI25" s="34"/>
+      <c r="AI25" s="39"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
@@ -5783,18 +5960,34 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="R26" s="41"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="31" t="s">
-        <v>161</v>
+        <v>194</v>
+      </c>
+      <c r="R26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S26" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U26" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="V26" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="W26" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="X26" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z26" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="AA26" s="14"/>
       <c r="AB26" s="8"/>
@@ -5804,7 +5997,7 @@
       <c r="AF26" s="8"/>
       <c r="AG26" s="8"/>
       <c r="AH26" s="8"/>
-      <c r="AI26" s="34"/>
+      <c r="AI26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
@@ -5824,18 +6017,34 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="R27" s="41"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="31" t="s">
-        <v>163</v>
+        <v>200</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>201</v>
+      </c>
+      <c r="U27" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="V27" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="X27" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y27" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z27" s="33" t="s">
+        <v>207</v>
       </c>
       <c r="AA27" s="14"/>
       <c r="AB27" s="8"/>
@@ -5845,7 +6054,7 @@
       <c r="AF27" s="8"/>
       <c r="AG27" s="8"/>
       <c r="AH27" s="8"/>
-      <c r="AI27" s="34"/>
+      <c r="AI27" s="39"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
@@ -5865,18 +6074,34 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="R28" s="41"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="31" t="s">
-        <v>165</v>
+        <v>208</v>
+      </c>
+      <c r="R28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S28" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="U28" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="V28" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W28" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="X28" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y28" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z28" s="33" t="s">
+        <v>215</v>
       </c>
       <c r="AA28" s="14"/>
       <c r="AB28" s="8"/>
@@ -5886,7 +6111,7 @@
       <c r="AF28" s="8"/>
       <c r="AG28" s="8"/>
       <c r="AH28" s="8"/>
-      <c r="AI28" s="34"/>
+      <c r="AI28" s="39"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
@@ -5906,18 +6131,34 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="R29" s="41"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="31" t="s">
-        <v>167</v>
+        <v>216</v>
+      </c>
+      <c r="R29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y29" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z29" s="33" t="s">
+        <v>217</v>
       </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="8"/>
@@ -5927,11 +6168,11 @@
       <c r="AF29" s="8"/>
       <c r="AG29" s="8"/>
       <c r="AH29" s="8"/>
-      <c r="AI29" s="34"/>
+      <c r="AI29" s="39"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>168</v>
+        <v>218</v>
       </c>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -5949,18 +6190,34 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="R30" s="41"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="31" t="s">
-        <v>170</v>
+        <v>219</v>
+      </c>
+      <c r="R30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y30" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z30" s="33" t="s">
+        <v>220</v>
       </c>
       <c r="AA30" s="14"/>
       <c r="AB30" s="8"/>
@@ -5970,7 +6227,7 @@
       <c r="AF30" s="8"/>
       <c r="AG30" s="8"/>
       <c r="AH30" s="8"/>
-      <c r="AI30" s="34"/>
+      <c r="AI30" s="39"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
@@ -5990,18 +6247,34 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="R31" s="41"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="43"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="31" t="s">
-        <v>172</v>
+        <v>221</v>
+      </c>
+      <c r="R31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z31" s="33" t="s">
+        <v>222</v>
       </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="8"/>
@@ -6011,7 +6284,7 @@
       <c r="AF31" s="8"/>
       <c r="AG31" s="8"/>
       <c r="AH31" s="8"/>
-      <c r="AI31" s="34"/>
+      <c r="AI31" s="39"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
@@ -6031,18 +6304,34 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
       <c r="Q32" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="R32" s="41"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="43"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="31" t="s">
-        <v>174</v>
+        <v>223</v>
+      </c>
+      <c r="R32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" s="33" t="s">
+        <v>224</v>
       </c>
       <c r="AA32" s="14"/>
       <c r="AB32" s="8"/>
@@ -6052,7 +6341,7 @@
       <c r="AF32" s="8"/>
       <c r="AG32" s="8"/>
       <c r="AH32" s="8"/>
-      <c r="AI32" s="34"/>
+      <c r="AI32" s="39"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
@@ -6072,18 +6361,34 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="R33" s="41"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="43"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="31" t="s">
-        <v>176</v>
+        <v>225</v>
+      </c>
+      <c r="R33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z33" s="33" t="s">
+        <v>226</v>
       </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="8"/>
@@ -6093,7 +6398,7 @@
       <c r="AF33" s="8"/>
       <c r="AG33" s="8"/>
       <c r="AH33" s="8"/>
-      <c r="AI33" s="34"/>
+      <c r="AI33" s="39"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
@@ -6113,18 +6418,34 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="R34" s="41"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="43"/>
-      <c r="Y34" s="44"/>
-      <c r="Z34" s="31" t="s">
-        <v>178</v>
+        <v>227</v>
+      </c>
+      <c r="R34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y34" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z34" s="33" t="s">
+        <v>228</v>
       </c>
       <c r="AA34" s="14"/>
       <c r="AB34" s="8"/>
@@ -6134,7 +6455,7 @@
       <c r="AF34" s="8"/>
       <c r="AG34" s="8"/>
       <c r="AH34" s="8"/>
-      <c r="AI34" s="34"/>
+      <c r="AI34" s="39"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
@@ -6154,22 +6475,34 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R35" s="45"/>
-      <c r="S35" s="46"/>
-      <c r="T35" s="46"/>
-      <c r="U35" s="46"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="Y35" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z35" s="31" t="s">
-        <v>181</v>
+        <v>229</v>
+      </c>
+      <c r="R35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="S35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="U35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="W35" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="X35" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y35" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z35" s="33" t="s">
+        <v>231</v>
       </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="8"/>
@@ -6179,130 +6512,130 @@
       <c r="AF35" s="8"/>
       <c r="AG35" s="8"/>
       <c r="AH35" s="8"/>
-      <c r="AI35" s="34"/>
+      <c r="AI35" s="39"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P36" s="1"/>
-      <c r="Q36" s="48"/>
-      <c r="Z36" s="49"/>
+      <c r="Q36" s="53"/>
+      <c r="Z36" s="54"/>
       <c r="AA36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P37" s="1"/>
-      <c r="Q37" s="48"/>
-      <c r="Z37" s="49"/>
+      <c r="Q37" s="53"/>
+      <c r="Z37" s="54"/>
       <c r="AA37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P38" s="1"/>
-      <c r="Q38" s="48"/>
-      <c r="Z38" s="49"/>
+      <c r="Q38" s="53"/>
+      <c r="Z38" s="54"/>
       <c r="AA38" s="3"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P39" s="1"/>
-      <c r="Q39" s="48"/>
-      <c r="Z39" s="49"/>
+      <c r="Q39" s="53"/>
+      <c r="Z39" s="54"/>
       <c r="AA39" s="3"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P40" s="1"/>
-      <c r="Q40" s="48"/>
-      <c r="Z40" s="49"/>
+      <c r="Q40" s="53"/>
+      <c r="Z40" s="54"/>
       <c r="AA40" s="3"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P41" s="1"/>
-      <c r="Q41" s="48"/>
-      <c r="Z41" s="49"/>
+      <c r="Q41" s="53"/>
+      <c r="Z41" s="54"/>
       <c r="AA41" s="3"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P42" s="1"/>
-      <c r="Q42" s="48"/>
-      <c r="Z42" s="49"/>
+      <c r="Q42" s="53"/>
+      <c r="Z42" s="54"/>
       <c r="AA42" s="3"/>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P43" s="1"/>
-      <c r="Q43" s="48"/>
-      <c r="Z43" s="49"/>
+      <c r="Q43" s="53"/>
+      <c r="Z43" s="54"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="P44" s="1"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="51" t="s">
-        <v>182</v>
-      </c>
-      <c r="T44" s="51"/>
-      <c r="U44" s="51"/>
-      <c r="V44" s="51"/>
-      <c r="W44" s="51"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
+      <c r="Q44" s="53"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
+      <c r="V44" s="56"/>
+      <c r="W44" s="56"/>
+      <c r="X44" s="56"/>
+      <c r="Y44" s="56"/>
+      <c r="Z44" s="56"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P45" s="1"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="52"/>
+      <c r="Q45" s="53"/>
+      <c r="R45" s="57"/>
       <c r="S45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z45" s="49"/>
+        <v>233</v>
+      </c>
+      <c r="Z45" s="54"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P46" s="1"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="53"/>
+      <c r="Q46" s="53"/>
+      <c r="R46" s="58"/>
       <c r="S46" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z46" s="49"/>
+        <v>234</v>
+      </c>
+      <c r="Z46" s="54"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P47" s="1"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="54"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="59"/>
       <c r="S47" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z47" s="49"/>
+        <v>235</v>
+      </c>
+      <c r="Z47" s="54"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P48" s="1"/>
-      <c r="Q48" s="48"/>
-      <c r="Z48" s="49"/>
+      <c r="Q48" s="53"/>
+      <c r="Z48" s="54"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P49" s="1"/>
-      <c r="Q49" s="48"/>
-      <c r="Z49" s="49"/>
+      <c r="Q49" s="53"/>
+      <c r="Z49" s="54"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P50" s="1"/>
-      <c r="Q50" s="48"/>
-      <c r="Z50" s="49"/>
+      <c r="Q50" s="53"/>
+      <c r="Z50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P51" s="1"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="55" t="s">
-        <v>186</v>
-      </c>
-      <c r="S51" s="55"/>
-      <c r="Z51" s="49"/>
+      <c r="Q51" s="53"/>
+      <c r="R51" s="60" t="s">
+        <v>236</v>
+      </c>
+      <c r="S51" s="60"/>
+      <c r="Z51" s="54"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P52" s="1"/>
-      <c r="Q52" s="48"/>
-      <c r="Z52" s="49"/>
+      <c r="Q52" s="53"/>
+      <c r="Z52" s="54"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="P53" s="1"/>
-      <c r="Q53" s="48"/>
-      <c r="Z53" s="49"/>
+      <c r="Q53" s="53"/>
+      <c r="Z53" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -6332,7 +6665,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Map" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Interrupt" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Prescaler" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="WGM Interrupt Mode" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,16 +72,7 @@
           <t xml:space="preserve">Timer Interrupt Flag Register 2
 –	–	–	–	–	OCF2B OCF2A TOV2
 7	6	5	4	3	      2           1        0
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Output Compare Flags:
+Output Compare Flags:
 OCF2B	Sets when TimerCounter2 == OCR2B
 	Executes TimerCounter2 Compare Match B Interrupt
 		TIMER2_COMPB_vect
@@ -144,27 +136,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter1 Interrupt Mask Register
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Enable Specific Interrupt
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
+Enable Specific Interrupt
 –	–	ICIE1	–	–	OCIE1B OCIE1A TOIE1
 7	6	    5          4      3            2           1           0
 [5] ICIE1: If set, Enables TimerCounter1 Input Capture interrupt.
@@ -268,37 +240,8 @@
           <t xml:space="preserve">Timer Interrupt Flag Register 1
 –	–	ICF1		–	–	OCF1B OCF1A TOV1
 7	6	   5		4	3	     2           1          0
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">ICF1 : Timer/Counter1, Input Capture Flag
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Output Compare Flags:
+ICF1 : Timer/Counter1, Input Capture Flag
+Output Compare Flags:
 OCF1B	Sets when TimerCounter1 == OCR1B
 	Executes TimerCounter1 Compare Match B Interrupt
 		TIMER1_COMPB_vect
@@ -336,6 +279,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter0 Interrupt Mask Register
 Enable Specific Interrupt
@@ -499,16 +443,7 @@
 Force Output Compare A
 Only active when WGM Bits are non-PWM mode.
 [7] FOC0A 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If Set, Compare Match is forced on Waveform Generation unit.
+If Set, Compare Match is forced on Waveform Generation unit.
 This affects </t>
         </r>
         <r>
@@ -518,6 +453,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC0A</t>
         </r>
@@ -527,6 +463,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 6, PWM), based on </t>
         </r>
@@ -537,6 +474,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">COM0A1:0</t>
         </r>
@@ -546,6 +484,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> in </t>
         </r>
@@ -556,6 +495,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TCCR0A
 </t>
@@ -570,16 +510,7 @@
           </rPr>
           <t xml:space="preserve">
 [6] FOC0B 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">If Set, Compare Match is forced on Waveform Generation unit.
+If Set, Compare Match is forced on Waveform Generation unit.
 This affects </t>
         </r>
         <r>
@@ -589,6 +520,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC0B</t>
         </r>
@@ -598,6 +530,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 5, PWM), based on </t>
         </r>
@@ -608,6 +541,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">COM0B1:0</t>
         </r>
@@ -617,6 +551,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> in </t>
         </r>
@@ -627,6 +562,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TCCR0A
 </t>
@@ -687,7 +623,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[3] WGM02
-Ser </t>
+Set </t>
         </r>
         <r>
           <rPr>
@@ -726,16 +662,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter1 - Counter Register High Byte
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Combined with TCNT1L, they make “TCNT1”</t>
+Combined with TCNT1L, they make “TCNT1”</t>
         </r>
       </text>
     </comment>
@@ -1329,6 +1256,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM11 and WGM10, found in TCCR1B, control the Waveform Generation Mode aka Interrupt Modes
 </t>
@@ -1393,6 +1321,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Timer/Counter Control Register 2 B </t>
         </r>
@@ -1403,6 +1332,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[Datasheet page 158]
 </t>
@@ -1413,6 +1343,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Force Output Compare A
@@ -1428,6 +1359,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC2A</t>
         </r>
@@ -1437,6 +1369,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 11, PWM), based on </t>
         </r>
@@ -1447,6 +1380,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">COM2A1:0</t>
         </r>
@@ -1456,6 +1390,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> in </t>
         </r>
@@ -1466,6 +1401,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TCCR2A
 </t>
@@ -1476,6 +1412,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 [6] FOC2B 
@@ -1489,6 +1426,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC2B</t>
         </r>
@@ -1498,6 +1436,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 3, PWM), based on </t>
         </r>
@@ -1508,6 +1447,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">COM2A1:0</t>
         </r>
@@ -1517,6 +1457,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> in </t>
         </r>
@@ -1527,6 +1468,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">TCCR2A
 </t>
@@ -1537,6 +1479,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 [5] -
@@ -1550,6 +1493,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM21, WGM20, found in TCCR2A</t>
         </r>
@@ -1559,6 +1503,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">, these control the </t>
         </r>
@@ -1569,6 +1514,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
 </t>
@@ -1579,6 +1525,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[3] WGM22
 Set </t>
@@ -1590,6 +1537,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Prescaler, Timer/Counter2
 </t>
@@ -1600,6 +1548,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">[2] CS22
 [1] CS21
@@ -1662,28 +1611,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Timer/Counter2 Interrupt Mask Register
+Timer/Counter2 Interrupt Mask Register
 Enable Specific Interrupt
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">–	–	–	–	–	OCIE2B OCIE2A TOIE2
+–	–	–	–	–	OCIE2B OCIE2A TOIE2
 7	6	5	4	3	      2	    1		0
 [2] OCIE2B: If set, enables Timer/Counter2 Compare Match B interrupt
 	Executes when [2]OCF2B in TIFR2 in is set
@@ -1896,24 +1826,16 @@
           </rPr>
           <t xml:space="preserve">
 Compare Match Output A Mode
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Control the </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC2A</t>
         </r>
@@ -1923,39 +1845,22 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 11, PWM) output behavior.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[7] COM2A1 
+[7] COM2A1 
 [6] COM2A0 
 Compare Match Output B Mode
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Control the </t>
-        </r>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">OC2B</t>
         </r>
@@ -1965,19 +1870,10 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> (Pin 3, PWM) output behavior.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">[5] COM2B1 
+[5] COM2B1 
 [4] COM2B0	
 [3] –	
 [2] –	
@@ -1990,6 +1886,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
         </r>
@@ -1999,6 +1896,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">, these control the 
 </t>
@@ -2010,6 +1908,7 @@
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
 </t>
@@ -2040,6 +1939,1978 @@
           <t xml:space="preserve">Initial SP value.
 Is implemented as two 8-bit registers in the I/O space [SPH/SPL].
 The number of bits actually used is implementation dependent.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 109 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A
+Only active when WGM Bits are non-PWM mode.
+[7] FOC0A 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM0A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[6] FOC0B 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM0B1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] –	
+[4] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM01/00, found in TCCR0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM02
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler, Timer/Counter0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS02
+[1] CS01 
+[0] CS00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A
+is only active when the WGM bits specify a non-PWM mode
+[7] FOC2A 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[6] FOC2B 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] -
+[4] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM21, WGM20, found in TCCR2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM22
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler, Timer/Counter2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS22
+[1] CS21
+[0] CS20</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 109 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A
+Only active when WGM Bits are non-PWM mode.
+[7] FOC0A 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM0A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[6] FOC0B 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM0B1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR0A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] –	
+[4] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM01/00, found in TCCR0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM02
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler, Timer/Counter0
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS02
+[1] CS01 
+[0] CS00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Force Output Compare A
+is only active when the WGM bits specify a non-PWM mode
+[7] FOC2A 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[6] FOC2B 
+If Set, Compare Match is forced on Waveform Generation unit.
+This affects </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM), based on </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">COM2A1:0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> in </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">TCCR2A
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[5] -
+[4] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM21, WGM20, found in TCCR2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[3] WGM22
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Prescaler, Timer/Counter2
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS22
+[1] CS21
+[0] CS20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 136]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[7] ICNC1 : Input Capture Noise Canceler
+[6] ICES1	 : Input Capture Edge Select
+[5] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM11 and WGM10, found in TCCR1B, control the Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[4] WGM13 
+[3] WGM12 
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Preslacer, Timer/Counter1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS12 
+[1] CS11 
+[0] CS10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 104 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM) output behavior.
+[7] COM0A1 
+[6] COM0A0 
+Compare Match Output B Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM) output behavior.
+[5] COM0B1 
+[4] COM0B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM01 
+[0] WGM00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM) output behavior.
+[7] COM2A1 
+[6] COM2A0 
+Compare Match Output B Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM) output behavior.
+[5] COM2B1 
+[4] COM2B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM21 
+[0] WGM20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register B </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 136]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+[7] ICNC1 : Input Capture Noise Canceler
+[6] ICES1	 : Input Capture Edge Select
+[5] -
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM11 and WGM10, found in TCCR1B, control the Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[4] WGM13 
+[3] WGM12 
+Set </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Preslacer, Timer/Counter1
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[2] CS12 
+[1] CS11 
+[0] CS10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter0 Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 104 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 6, PWM) output behavior.
+[7] COM0A1 
+[6] COM0A0 
+Compare Match Output B Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 5, PWM) output behavior.
+[5] COM0B1 
+[4] COM0B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM01 
+[0] WGM00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter Control Register 2 A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Datasheet page 158]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output A Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 11, PWM) output behavior.
+[7] COM2A1 
+[6] COM2A0 
+Compare Match Output B Mode
+Control the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC2B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 3, PWM) output behavior.
+[5] COM2B1 
+[4] COM2B0	
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM02, found in TCCR0B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM21 
+[0] WGM20</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 135 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output Mode for Channel A
+[7] COM1A1 
+[6] COM1A0 
+Compare Match Output Mode for Channel B
+[5] COM0B1 
+[4] COM0B0	
+Controls the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 9, PWM) and </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 10, PWM) output behavior.
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM13 and WGM12, found in TCCR1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM11 
+[0] WGM10</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Timer/Counter1 Control Register A </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[Page 135 Datasheet]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Compare Match Output Mode for Channel A
+[7] COM1A1 
+[6] COM1A0 
+Compare Match Output Mode for Channel B
+[5] COM0B1 
+[4] COM0B0	
+Controls the </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1A</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 9, PWM) and </t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">OC1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> (Pin 10, PWM) output behavior.
+[3] –	
+[2] –	
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Combined with WGM13 and WGM12, found in TCCR1B</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">, these control the 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Waveform Generation Mode aka Interrupt Modes
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">[1] WGM11 
+[0] WGM10</t>
         </r>
       </text>
     </comment>
@@ -2048,7 +3919,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="299">
   <si>
     <t xml:space="preserve">Flash (Program FLash memory) [32K]</t>
   </si>
@@ -2269,25 +4140,7 @@
     <t xml:space="preserve">18H</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">overfl.</t>
-    </r>
+    <t xml:space="preserve">T1 overfl.</t>
   </si>
   <si>
     <t xml:space="preserve">27H</t>
@@ -2314,49 +4167,13 @@
     <t xml:space="preserve">20H</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">overfl.</t>
-    </r>
+    <t xml:space="preserve">T2 overfl.</t>
   </si>
   <si>
     <t xml:space="preserve">OCR1A[16bit]</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">T0 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">overfl.</t>
-    </r>
+    <t xml:space="preserve">T0 overfl.</t>
   </si>
   <si>
     <t xml:space="preserve">2FH</t>
@@ -2813,6 +4630,192 @@
   </si>
   <si>
     <t xml:space="preserve">[x] Indicates bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCCR0B/1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2]CS02/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]CS01/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0]CS00/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No clock source (Timer/Counter stopped)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk I/O /(No prescaling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk I/O 8 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk I/O 64 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk I/O 256 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk I/O 1024 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External clock source on T0/T1 pin. Clock on falling edge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">External clock source on T0/T1 pin. Clock on rising edge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2]CS22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[1]CS21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0]CS20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No clock source (Timer/Counter stopped).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T2S (No prescaling)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T2S 8 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T2S 32 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T2S 64 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T2S 128 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T 2 S 256 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clk T 2 S 1024 (From prescaler)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOV Flag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM02/22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM01/21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM00/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Counter Mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCRx at</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immediate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM, Phase Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOTTOM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast PWM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WGM10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0xFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM, Ph Correct, 8-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x00FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM, Ph Correct, 9-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x01FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM, Ph Correct, 10-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0x03FF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OCR1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast PWM, 8-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast PWM, 9-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast PWM, 10-bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWM, Ph and Freq Correct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICR1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Reserved)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fast PWM</t>
   </si>
 </sst>
 </file>
@@ -2822,7 +4825,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2936,12 +4939,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3013,13 +5010,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3155,7 +5145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -3283,6 +5273,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3360,7 +5371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3421,7 +5432,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3429,7 +5440,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3441,19 +5452,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3477,23 +5488,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3505,23 +5516,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="14" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="9" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="15" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3533,7 +5544,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="17" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3549,7 +5560,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3557,11 +5568,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3603,6 +5614,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3699,13 +5734,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
+      <xdr:colOff>512280</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>79200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>363240</xdr:colOff>
+      <xdr:colOff>386280</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
@@ -3717,7 +5752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18437400" y="254160"/>
-          <a:ext cx="1863360" cy="1179000"/>
+          <a:ext cx="1862280" cy="1179000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3792,15 +5827,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>459720</xdr:colOff>
+      <xdr:colOff>483120</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>6840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>118800</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3810,7 +5845,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17727120" y="1233360"/>
-          <a:ext cx="340560" cy="1380240"/>
+          <a:ext cx="340200" cy="1379880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3870,13 +5905,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>416520</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>141480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>415080</xdr:colOff>
+      <xdr:colOff>438120</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
@@ -3888,7 +5923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18341640" y="1893960"/>
-          <a:ext cx="1395720" cy="336600"/>
+          <a:ext cx="1394640" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3947,15 +5982,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
+      <xdr:colOff>482040</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>168840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>117720</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>147240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3965,7 +6000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17726040" y="2622240"/>
-          <a:ext cx="340560" cy="3484080"/>
+          <a:ext cx="340200" cy="3483720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4025,13 +6060,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>232200</xdr:colOff>
+      <xdr:colOff>255960</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>16560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
@@ -4043,7 +6078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18181080" y="4222800"/>
-          <a:ext cx="1454400" cy="336600"/>
+          <a:ext cx="1453320" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4102,15 +6137,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>438120</xdr:colOff>
+      <xdr:colOff>461520</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>169200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>120600</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4120,7 +6155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17705520" y="6127920"/>
-          <a:ext cx="340560" cy="2172960"/>
+          <a:ext cx="340200" cy="2172600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4180,13 +6215,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>69120</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>46440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>56520</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>43</xdr:row>
       <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
@@ -4197,8 +6232,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19368000" y="7232040"/>
-          <a:ext cx="2472120" cy="336600"/>
+          <a:off x="19367280" y="7232040"/>
+          <a:ext cx="2471760" cy="336600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4241,15 +6276,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>90360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>589680</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4263,7 +6298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11235240" y="6224400"/>
-          <a:ext cx="5391360" cy="1119960"/>
+          <a:ext cx="5391000" cy="1119600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4278,15 +6313,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
+      <xdr:colOff>536040</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>219600</xdr:colOff>
+      <xdr:colOff>242640</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4299,8 +6334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20450160" y="1835280"/>
-          <a:ext cx="4578120" cy="3029760"/>
+          <a:off x="20449440" y="1835280"/>
+          <a:ext cx="4577760" cy="3029400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4315,15 +6350,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>476280</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>167040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>111960</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4333,7 +6368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17720280" y="517320"/>
-          <a:ext cx="340560" cy="707040"/>
+          <a:ext cx="340200" cy="706680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4400,8 +6435,8 @@
   </sheetPr>
   <dimension ref="A1:AO53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB19" activeCellId="0" sqref="AB19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O7" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X26" activeCellId="0" sqref="X26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4415,15 +6450,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="7.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="10.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="9.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="9.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="29" style="1" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="36" style="0" width="8.48"/>
   </cols>
@@ -6663,17 +8698,492 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="10.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="8.48"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.48"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="62" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="62" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="63"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="61" t="s">
+        <v>249</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="61" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="62" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>255</v>
+      </c>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="62" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="62" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6681,5 +9191,815 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="61" width="6.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="61" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="61" width="17.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="61" width="23.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="61" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="61" width="8.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="61" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="G2" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="E3" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="H3" s="66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="G4" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="H4" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="F6" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G6" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="F9" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>279</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="F11" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="G11" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="H11" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="64" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14" s="64" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="65" t="s">
+        <v>262</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>283</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>268</v>
+      </c>
+      <c r="I15" s="66" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="H16" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H17" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="61" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="G18" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="61" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="G19" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="61" t="n">
+        <v>4</v>
+      </c>
+      <c r="B20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="61" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I21" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="61" t="n">
+        <v>6</v>
+      </c>
+      <c r="B22" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="G22" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I22" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="61" t="n">
+        <v>7</v>
+      </c>
+      <c r="B23" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="G23" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="H23" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I23" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="61" t="n">
+        <v>8</v>
+      </c>
+      <c r="B24" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="G24" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H24" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I24" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="61" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="61" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H26" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I26" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="G27" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H27" s="61" t="s">
+        <v>267</v>
+      </c>
+      <c r="I27" s="61" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="61" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="G28" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H28" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="I28" s="61" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="61" t="n">
+        <v>13</v>
+      </c>
+      <c r="B29" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="G29" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="61" t="n">
+        <v>14</v>
+      </c>
+      <c r="B30" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G30" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I30" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="61" t="n">
+        <v>15</v>
+      </c>
+      <c r="B31" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="G31" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="H31" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="I31" s="61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Atmega328p map & datasheet/Atmega328p.xlsx
+++ b/Atmega328p map & datasheet/Atmega328p.xlsx
@@ -9203,7 +9203,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
